--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -441,7 +441,7 @@
         <v>Solo construirán para Fermilab.</v>
       </c>
       <c r="D3" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="4">
@@ -455,7 +455,7 @@
         <v>Si tomas el año en que nació Robin Rimbaud y inviertes los dígitos, obtendrás 4691.</v>
       </c>
       <c r="D4" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>La picadura de bicho más común en el hogar es la picadura de bicho rojo.</v>
       </c>
       <c r="D5" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="6">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -497,7 +497,7 @@
         <v>La Cláusula Necesaria y Apropiada se aplica particularmente a los derechos de autor expirados.</v>
       </c>
       <c r="D7" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="8">
@@ -511,7 +511,7 @@
         <v>Eveland es del municipio del Condado de Orange.</v>
       </c>
       <c r="D8" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="9">
@@ -525,7 +525,7 @@
         <v>El senador Ghitter se postulará para presidente.</v>
       </c>
       <c r="D9" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="10">
@@ -539,7 +539,7 @@
         <v>el hombre y la mujer del este de Texas están en su sano juicio</v>
       </c>
       <c r="D10" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="11">
@@ -553,7 +553,7 @@
         <v>La reunión se llevó a cabo el 1 de octubre de 1998.</v>
       </c>
       <c r="D11" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="12">
@@ -567,7 +567,7 @@
         <v>Se hicieron amenazas en un momento determinado de la historia respecto a la incertidumbre de la implementación de sanciones particulares. Estas sanciones harían que una entidad estuviera extremadamente molesta.</v>
       </c>
       <c r="D12" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="13">
@@ -581,7 +581,7 @@
         <v>Un programa puede ejecutarse en la versión LTS de Fermi Linux correspondiente si no está certificado por RedHat Enterprise.</v>
       </c>
       <c r="D13" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="14">
@@ -595,7 +595,7 @@
         <v>Si nunca usas el área, será suficiente con un par de veces a la semana.</v>
       </c>
       <c r="D14" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="15">
@@ -609,7 +609,7 @@
         <v>La casa fue completada en la década de 1940.</v>
       </c>
       <c r="D15" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="16">
@@ -623,7 +623,7 @@
         <v>El "ellos" mencionado en este contexto se ha alineado completamente con la acusación.</v>
       </c>
       <c r="D16" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="17">
@@ -637,7 +637,7 @@
         <v>El artículo dice que se use la mayor parte de la gasolina en el coche.</v>
       </c>
       <c r="D17" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="18">
@@ -651,7 +651,7 @@
         <v>Los dos hombres están en prisión por 20 años.</v>
       </c>
       <c r="D18" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="19">
@@ -665,7 +665,7 @@
         <v>Es útil saber si tu oponente ha bebido demasiado.</v>
       </c>
       <c r="D19" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="20">
@@ -679,7 +679,7 @@
         <v>Michael Jackson está muerto.</v>
       </c>
       <c r="D20" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="21">
@@ -693,7 +693,7 @@
         <v>No se ha puesto énfasis en el aprendizaje temprano.</v>
       </c>
       <c r="D21" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="22">
@@ -707,7 +707,7 @@
         <v>Bájate en la parada del parque folclórico nacional y camina desde allí hasta la entrada principal.</v>
       </c>
       <c r="D22" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="23">
@@ -721,7 +721,7 @@
         <v>El tiroteo duró hasta la mañana del martes.</v>
       </c>
       <c r="D23" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="24">
@@ -735,7 +735,7 @@
         <v>La reforma tenía como objetivo armonizar las reglas de ortografía.</v>
       </c>
       <c r="D24" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="25">
@@ -749,7 +749,7 @@
         <v>Cómo se ve tu manguera te dirá cómo fue dañada.</v>
       </c>
       <c r="D25" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="26">
@@ -763,7 +763,7 @@
         <v>A la gente le gusta dormir en una habitación fría.</v>
       </c>
       <c r="D26" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="27">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -777,7 +777,7 @@
         <v>Si solías ver SportsCenter a las 12 p.m. los miércoles, hay una posibilidad de que sepas quién es Chris McKendry.</v>
       </c>
       <c r="D27" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="28">
@@ -805,7 +805,7 @@
         <v>El agente era parte del ejército.</v>
       </c>
       <c r="D29" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="30">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -819,7 +819,7 @@
         <v>Cualquiera puede cultivar violetas africanas si simplemente tiene la fuerza de voluntad.</v>
       </c>
       <c r="D30" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="31">
@@ -847,7 +847,7 @@
         <v>Se logrará una paz duradera.</v>
       </c>
       <c r="D32" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="33">
@@ -861,7 +861,7 @@
         <v>El horario de verano afectará tu práctica, tenlo en cuenta.</v>
       </c>
       <c r="D33" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="34">
@@ -875,7 +875,7 @@
         <v>Los adultos pueden tener TDAH.</v>
       </c>
       <c r="D34" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>El proyecto de ley C-3 proporciona una exención que autoriza a los jueces a tomar muestras.</v>
       </c>
       <c r="D35" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="36">
@@ -903,7 +903,7 @@
         <v>Si dejas de fumar productos de tabaco, no desarrollarás cáncer de pulmón.</v>
       </c>
       <c r="D36" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="37">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -917,7 +917,7 @@
         <v>Los empleados eran reacios a dar declaraciones juradas.</v>
       </c>
       <c r="D37" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="38">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -931,7 +931,7 @@
         <v>El Dalai Lama es un líder amante de la paz.</v>
       </c>
       <c r="D38" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="39">
@@ -945,7 +945,7 @@
         <v>Jongno tiene una flota de autobuses.</v>
       </c>
       <c r="D39" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="40">
@@ -959,7 +959,7 @@
         <v>Esta persona estudia derecho de autor.</v>
       </c>
       <c r="D40" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="41">
@@ -973,7 +973,7 @@
         <v>No tomes vitamina E.</v>
       </c>
       <c r="D41" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="42">
@@ -987,7 +987,7 @@
         <v>Los europeos cambian los detalles de derechos de autor.</v>
       </c>
       <c r="D42" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="43">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -1001,7 +1001,7 @@
         <v>Mixbin Electronics fabrica electrónica.</v>
       </c>
       <c r="D43" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="44">
@@ -1015,7 +1015,7 @@
         <v>La medicina ha avanzado mucho desde que comenzó en las Américas.</v>
       </c>
       <c r="D44" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="45">
@@ -1029,7 +1029,7 @@
         <v>La declaración nombra a personas cuyos nombres comienzan con una M y una F.</v>
       </c>
       <c r="D45" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="46">
@@ -1057,7 +1057,7 @@
         <v>Tu corazón controla el reloj de tu cuerpo.</v>
       </c>
       <c r="D47" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="48">
@@ -1071,7 +1071,7 @@
         <v>hay otro párrafo</v>
       </c>
       <c r="D48" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="49">
@@ -1085,7 +1085,7 @@
         <v>Si fumar causa células anormales, entonces las células anormales son la única causa del cáncer.</v>
       </c>
       <c r="D49" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="50">
@@ -1099,7 +1099,7 @@
         <v>Corea del Norte ha instalado nuevas cámaras de inspección.</v>
       </c>
       <c r="D50" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="51">
@@ -1113,7 +1113,7 @@
         <v>Puedes ganar si el oponente está solo.</v>
       </c>
       <c r="D51" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="52">
@@ -1141,7 +1141,7 @@
         <v>Buckingham solía hablar en las reuniones.</v>
       </c>
       <c r="D53" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="54">
@@ -1155,7 +1155,7 @@
         <v>Fregar es necesario para este tipo de azulejo.</v>
       </c>
       <c r="D54" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="55">
@@ -1169,7 +1169,7 @@
         <v>Los médicos llevarán un registro del historial de vacunación de un paciente.</v>
       </c>
       <c r="D55" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="56">
@@ -1183,7 +1183,7 @@
         <v>La pregunta es difícil de responder.</v>
       </c>
       <c r="D56" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="57">
@@ -1197,7 +1197,7 @@
         <v>Las leyes de derechos de autor han existido durante más de 200 años.</v>
       </c>
       <c r="D57" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="58">
@@ -1211,7 +1211,7 @@
         <v>Esta carta importante se refiere a los comentarios realizados por Beth Eveland.</v>
       </c>
       <c r="D58" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="59">
@@ -1239,7 +1239,7 @@
         <v>Bélgica es mayoritariamente flamenca.</v>
       </c>
       <c r="D60" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="61">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -1253,7 +1253,7 @@
         <v>La enfermedad de Lyme es genética.</v>
       </c>
       <c r="D61" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="62">
@@ -1281,7 +1281,7 @@
         <v>Rich Girl cuenta con un rapero alemán.</v>
       </c>
       <c r="D63" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="64">
@@ -1295,7 +1295,7 @@
         <v>Louis Tomlinson apareció en una comedia de ITV.</v>
       </c>
       <c r="D64" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="65">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -1309,7 +1309,7 @@
         <v>Jennifer Garner estuvo en una película.</v>
       </c>
       <c r="D65" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="66">
@@ -1337,7 +1337,7 @@
         <v>El Sr. Michael será procesado.</v>
       </c>
       <c r="D67" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="68">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -1351,7 +1351,7 @@
         <v>Uno se sentiría menospreciado si recibiera una invitación a un bris.</v>
       </c>
       <c r="D68" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="69">
@@ -1365,7 +1365,7 @@
         <v>El canal ha sido eliminado desde entonces para su descarga de internet.</v>
       </c>
       <c r="D69" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="70">
@@ -1379,7 +1379,7 @@
         <v>Un requisito previo para descargar el canal es tener instalado Internet Explorer.</v>
       </c>
       <c r="D70" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="71">
@@ -1393,7 +1393,7 @@
         <v>Hay un número determinado de votantes.</v>
       </c>
       <c r="D71" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="72">
@@ -1407,7 +1407,7 @@
         <v>Los traders de opciones aplaudieron con las palmas de sus manos en reconocimiento a Scholes y Merton.</v>
       </c>
       <c r="D72" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="73">
@@ -1421,7 +1421,7 @@
         <v>Si no prestamos atención a los MacDonalds del mundo, simplemente desaparecerán por sí solos.</v>
       </c>
       <c r="D73" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="74">
@@ -1435,7 +1435,7 @@
         <v>Es una señal muy positiva que el 20% del nuevo dinero en fondos mutuos esté yendo a fondos indexados.</v>
       </c>
       <c r="D74" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="75">
@@ -1449,7 +1449,7 @@
         <v>Andrew Baumgartner es un profesor aburrido.</v>
       </c>
       <c r="D75" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="76">
@@ -1463,7 +1463,7 @@
         <v>Los grandes pensaban que era libre de riesgos.</v>
       </c>
       <c r="D76" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="77">
@@ -1477,7 +1477,7 @@
         <v>La encuesta está disponible para realizarse en línea.</v>
       </c>
       <c r="D77" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="78">
@@ -1491,7 +1491,7 @@
         <v>Los medios a favor de la elección están dispuestos a aceptar estadísticas que apoyen su afirmación, incluso si son incorrectas.</v>
       </c>
       <c r="D78" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="79">
@@ -1505,7 +1505,7 @@
         <v>Jerry Seinfeld hace que lo encantador parezca un poco inmaduro.</v>
       </c>
       <c r="D79" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="80">
@@ -1519,7 +1519,7 @@
         <v>El Hombre de Kennewick tiene una elección que hacer sobre su reserva si existe evidencia.</v>
       </c>
       <c r="D80" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="81">
@@ -1533,7 +1533,7 @@
         <v>A menudo se escucha aplausos en el piso de la bolsa de opciones.</v>
       </c>
       <c r="D81" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="82">
@@ -1547,7 +1547,7 @@
         <v>Resulta que Lewinsky y Tripp se convertirían en buenas amigas si Clinton expresara su tristeza y remordimiento.</v>
       </c>
       <c r="D82" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="83">
@@ -1561,7 +1561,7 @@
         <v>Hay una guerra civil cultural en curso.</v>
       </c>
       <c r="D83" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="84">
@@ -1575,7 +1575,7 @@
         <v>Así, romperás los lazos de ellos, haciendo que lo que ella dice y llama a él sea verdaderamente nulo.</v>
       </c>
       <c r="D84" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="85">
@@ -1589,7 +1589,7 @@
         <v>Los anunciantes abandonarían la publicación si fuera gratuita.</v>
       </c>
       <c r="D85" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="86">
@@ -1603,7 +1603,7 @@
         <v>Él corre el riesgo de perder mucho más si compra con margen.</v>
       </c>
       <c r="D86" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="87">
@@ -1617,7 +1617,7 @@
         <v>Sheen está en un camino que lleva a la muerte.</v>
       </c>
       <c r="D87" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="88">
@@ -1631,7 +1631,7 @@
         <v>Después de haber domesticado con éxito a los animales, es una elección personal utilizarlos como mascotas.</v>
       </c>
       <c r="D88" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="89">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -1561,7 +1561,7 @@
         <v>Hay una guerra civil cultural en curso.</v>
       </c>
       <c r="D83" t="str">
-        <v>Neutral</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="84">
@@ -1575,7 +1575,7 @@
         <v>Así, romperás los lazos de ellos, haciendo que lo que ella dice y llama a él sea verdaderamente nulo.</v>
       </c>
       <c r="D84" t="str">
-        <v>Neutral</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="85">
@@ -1645,7 +1645,7 @@
         <v>Puedes hacer clic aquí para leer la opinión de Jon Robin Baitz sobre la controversia y su opinión sobre la censura.</v>
       </c>
       <c r="D89" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="90">
@@ -1659,7 +1659,7 @@
         <v>¿Qué pasaría si hubiera otro jugador?</v>
       </c>
       <c r="D90" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="91">
@@ -1673,7 +1673,7 @@
         <v>Landsburg está criticando a los Estados Unidos de América.</v>
       </c>
       <c r="D91" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="92">
@@ -1687,7 +1687,7 @@
         <v>Pocas, si es que hay, publicaciones físicas son caras; en su mayor parte, son muy asequibles.</v>
       </c>
       <c r="D92" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="93">
@@ -1701,7 +1701,7 @@
         <v>El procedimiento de aborto importa.</v>
       </c>
       <c r="D93" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="94">
@@ -1715,7 +1715,7 @@
         <v>Usar la cuenta IRA antes de jubilarse puede generar beneficios fiscales.</v>
       </c>
       <c r="D94" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="95">
@@ -1729,7 +1729,7 @@
         <v>Un enfoque sutil para su salida es aceptable.</v>
       </c>
       <c r="D95" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="96">
@@ -1743,7 +1743,7 @@
         <v>Hay congresistas que han montado en el metro de la ciudad de Nueva York.</v>
       </c>
       <c r="D96" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="97">
@@ -1757,7 +1757,7 @@
         <v>El periodismo de Isikoff le ha traído desprecio de otros.</v>
       </c>
       <c r="D97" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="98">
@@ -1771,7 +1771,7 @@
         <v>Bill Gates tiene dificultades para pagar sus cuentas.</v>
       </c>
       <c r="D98" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="99">
@@ -1785,7 +1785,7 @@
         <v>Los críticos desestiman todas las novelas sociales.</v>
       </c>
       <c r="D99" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="100">
@@ -1799,7 +1799,7 @@
         <v>Comer crustáceos te hace parecer que comes de una manera parecida a la de un pájaro.</v>
       </c>
       <c r="D100" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="101">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -1813,7 +1813,7 @@
         <v>El informe en Dallas Morning News ayudó a arrojar más luz sobre el evento que tuvo lugar entre Clinton y Lewinsky.</v>
       </c>
       <c r="D101" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="102">
@@ -1827,7 +1827,7 @@
         <v>Consentió porque la alternativa era el juicio político.</v>
       </c>
       <c r="D102" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="103">
@@ -1841,7 +1841,7 @@
         <v>George Bush padre y George W. Bush son ambos del sur.</v>
       </c>
       <c r="D103" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="104">
@@ -1855,7 +1855,7 @@
         <v>La mayoría de los negativos reaparecieron.</v>
       </c>
       <c r="D104" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="105">
@@ -1869,7 +1869,7 @@
         <v>El aborto es desagradable.</v>
       </c>
       <c r="D105" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="106">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -1883,7 +1883,7 @@
         <v>A algunas personas les importa si los jueces son honestos.</v>
       </c>
       <c r="D106" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="107">
@@ -1897,7 +1897,7 @@
         <v>Los abortos parciales, D y E son todos lo mismo.</v>
       </c>
       <c r="D107" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="108">
@@ -1925,7 +1925,7 @@
         <v>Parecía que iba a fallar.</v>
       </c>
       <c r="D109" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="110">
@@ -1953,7 +1953,7 @@
         <v>la razón está dentro de la respuesta.</v>
       </c>
       <c r="D111" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="112">
@@ -1967,7 +1967,7 @@
         <v>No hay violencia en los dramas ordinarios, está mal.</v>
       </c>
       <c r="D112" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="113">
@@ -1981,7 +1981,7 @@
         <v>Los Mediáfilos son vistos como una nueva era.</v>
       </c>
       <c r="D113" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="114">
@@ -2009,7 +2009,7 @@
         <v>Wall Street y los mediáfilos tienen mucho en común.</v>
       </c>
       <c r="D115" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="116">
@@ -2023,7 +2023,7 @@
         <v>La ausencia de pacientes demandando a las aseguradoras sería un paso en la dirección correcta.</v>
       </c>
       <c r="D116" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="117">
@@ -2037,7 +2037,7 @@
         <v>Él tiene la intención de convertirse en una amenaza seria.</v>
       </c>
       <c r="D117" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="118">
@@ -2051,7 +2051,7 @@
         <v>La historia es hilarante.</v>
       </c>
       <c r="D118" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="119">
@@ -2065,7 +2065,7 @@
         <v>El gobierno no controla los embargos.</v>
       </c>
       <c r="D119" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="120">
@@ -2079,7 +2079,7 @@
         <v>Si tienes un hijo que ya está cubierto por un seguro, entonces el programa no lo cubrirá.</v>
       </c>
       <c r="D120" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="121">
@@ -2093,7 +2093,7 @@
         <v>Nadie concluirá que es una obra maestra por su propia cuenta.</v>
       </c>
       <c r="D121" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="122">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -2107,7 +2107,7 @@
         <v>si tan solo hubiera severas consecuencias de la ley</v>
       </c>
       <c r="D122" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="123">
@@ -2121,7 +2121,7 @@
         <v>Las intersecciones con el eje Y permanecerían sin cambios en general, incluso si el eje vertical tuviera un cambio en los datos.</v>
       </c>
       <c r="D123" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="124">
@@ -2135,7 +2135,7 @@
         <v>Los conservadores dicen que el perjurio es perjurio y que nadie puede salirse con la suya.</v>
       </c>
       <c r="D124" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="125">
@@ -2149,7 +2149,7 @@
         <v>Encontró a una persona dispuesta a trabajar esas horas después de dos meses de búsqueda.</v>
       </c>
       <c r="D125" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="126">
@@ -2163,7 +2163,7 @@
         <v>El cambio ofrecerá su propia protección.</v>
       </c>
       <c r="D126" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="127">
@@ -2177,7 +2177,7 @@
         <v>El ciclismo en el área metropolitana francesa es seguro y relajante.</v>
       </c>
       <c r="D127" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="128">
@@ -2191,7 +2191,7 @@
         <v>No está claro si el abuso está ocurriendo con más frecuencia o simplemente se está reportando con más frecuencia.</v>
       </c>
       <c r="D128" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="129">
@@ -2205,7 +2205,7 @@
         <v>Un pasante no recibe pago.</v>
       </c>
       <c r="D129" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="130">
@@ -2219,7 +2219,7 @@
         <v>No es un buen amigo si te dice que te encantará Happy Texas, escribió el artículo.</v>
       </c>
       <c r="D130" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="131">
@@ -2233,7 +2233,7 @@
         <v>Iré de vez en cuando cuando me apetezca.</v>
       </c>
       <c r="D131" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="132">
@@ -2247,7 +2247,7 @@
         <v>Incluso si cobras dinero, cumplir con las reglas puede ser posible.</v>
       </c>
       <c r="D132" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="133">
@@ -2275,7 +2275,7 @@
         <v>Es difícil decir al principio si Fred es bueno.</v>
       </c>
       <c r="D134" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="135">
@@ -2289,7 +2289,7 @@
         <v>El dependiente dijo que si elijo grabar, me dará un 20% de descuento.</v>
       </c>
       <c r="D135" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="136">
@@ -2303,7 +2303,7 @@
         <v>Si la banda grita ole, significa que el matador lo está haciendo mal.</v>
       </c>
       <c r="D136" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="137">
@@ -2317,7 +2317,7 @@
         <v>Lo que hicimos a los nativos hace que Custer parezca amable.</v>
       </c>
       <c r="D137" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="138">
@@ -2331,7 +2331,7 @@
         <v>A muchas personas les gusta comprar un pez globo disecado como souvenir que también funciona como pantalla de lámpara.</v>
       </c>
       <c r="D138" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="139">
@@ -2345,7 +2345,7 @@
         <v>Ese no es el problema.</v>
       </c>
       <c r="D139" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="140">
@@ -2359,7 +2359,7 @@
         <v>Me atraparon antes de que lo terminara.</v>
       </c>
       <c r="D140" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="141">
@@ -2373,7 +2373,7 @@
         <v>Él tiene acceso a toda la información y actuará rápidamente si se siente menospreciado.</v>
       </c>
       <c r="D141" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="142">
@@ -2387,7 +2387,7 @@
         <v>Le encantaría si respetáramos su legado.</v>
       </c>
       <c r="D142" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="143">
@@ -2401,7 +2401,7 @@
         <v>Detrás de la ópera hay dos de los grandes almacenes más conocidos si puedes encontrarlos.</v>
       </c>
       <c r="D143" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="144">
@@ -2415,7 +2415,7 @@
         <v>Eres consciente de que no votas por ningún candidato.</v>
       </c>
       <c r="D144" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="145">
@@ -2443,7 +2443,7 @@
         <v>Los enlaces en el artículo contienen material diferente al de los enlaces al final del artículo.</v>
       </c>
       <c r="D146" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="147">
@@ -2457,7 +2457,7 @@
         <v>El maestro zapatero mantenía una relación profesional con su asistente.</v>
       </c>
       <c r="D147" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="148">
@@ -2485,7 +2485,7 @@
         <v>Si fuera sincero, no siempre salvará tus dedos.</v>
       </c>
       <c r="D149" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="150">
@@ -2499,7 +2499,7 @@
         <v>No se requiere que consultes con el LSC si hay problemas.</v>
       </c>
       <c r="D150" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="151">
@@ -2513,7 +2513,7 @@
         <v>Espero que los resultados sean sustancialmente diferentes.</v>
       </c>
       <c r="D151" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="152">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -2527,7 +2527,7 @@
         <v>¿Seguiremos siendo amigos si cambio?</v>
       </c>
       <c r="D152" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="153">
@@ -2541,7 +2541,7 @@
         <v>Se le preguntó sobre fotógrafos de California en particular.</v>
       </c>
       <c r="D153" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="154">
@@ -2555,7 +2555,7 @@
         <v>Tener instalaciones cada cinco años o cada tres años afecta los costos laborales.</v>
       </c>
       <c r="D154" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="155">
@@ -2569,7 +2569,7 @@
         <v>El Partido Republicano tiene una baja participación electoral.</v>
       </c>
       <c r="D155" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="156">
@@ -2583,7 +2583,7 @@
         <v>¿Cuánto tiempo debo esperar para que alguien retire su ropa de la lavadora o secadora?</v>
       </c>
       <c r="D156" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="157">
@@ -2597,7 +2597,7 @@
         <v>El juez señaló a las mujeres ruidosas y exigió silencio inmediato.</v>
       </c>
       <c r="D157" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="158">
@@ -2611,7 +2611,7 @@
         <v>Se sabe que entenderás su idioma al escucharlos cantar.</v>
       </c>
       <c r="D158" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="159">
@@ -2625,7 +2625,7 @@
         <v>Su abuela está en un estado terrible ahora.</v>
       </c>
       <c r="D159" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="160">
@@ -2639,7 +2639,7 @@
         <v>Ganas un café gratis si envías esta tarjeta en particular.</v>
       </c>
       <c r="D160" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="161">
@@ -2653,7 +2653,7 @@
         <v>Si podemos ver pruebas de que esas personas están saliendo del país, entonces esas personas no van a quedarse.</v>
       </c>
       <c r="D161" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="162">
@@ -2667,7 +2667,7 @@
         <v>Aunque fue hace mucho tiempo, todavía realmente importa.</v>
       </c>
       <c r="D162" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="163">
@@ -2681,7 +2681,7 @@
         <v>Algunos se preguntan si Clinton invocará la quinta enmienda si es citado a la corte.</v>
       </c>
       <c r="D163" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="164">
@@ -2695,7 +2695,7 @@
         <v>Es una caminata llegar a los Jardines de Victoria Peak.</v>
       </c>
       <c r="D164" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="165">
@@ -2709,7 +2709,7 @@
         <v>Si no lo usas antes de fin de año, se habrá ido.</v>
       </c>
       <c r="D165" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="166">
@@ -2723,7 +2723,7 @@
         <v>Publicar en revistas de trauma y emergencias es la única forma de cambiar las prácticas.</v>
       </c>
       <c r="D166" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="167">
@@ -2737,7 +2737,7 @@
         <v>Los vendedores no siempre tienen una presencia física suficiente en un estado.</v>
       </c>
       <c r="D167" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="168">
@@ -2751,7 +2751,7 @@
         <v>El narrador es un vampiro y este es uno de sus poderes vampíricos.</v>
       </c>
       <c r="D168" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="169">
@@ -2765,7 +2765,7 @@
         <v>Si la tasa de interés actual se mantiene igual, el precio del mercado de valores del tesoro se mantiene igual.</v>
       </c>
       <c r="D169" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="170">
@@ -2779,7 +2779,7 @@
         <v>Es un coche raro llamado Saab, no estoy seguro de si existe allá abajo.</v>
       </c>
       <c r="D170" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="171">
@@ -2793,7 +2793,7 @@
         <v>No hay una sola razón por la que cualquier gobierno embargue este producto.</v>
       </c>
       <c r="D171" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="172">
@@ -2807,7 +2807,7 @@
         <v>¿No entendiste cómo funciona el crédito?</v>
       </c>
       <c r="D172" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="173">
@@ -2821,7 +2821,7 @@
         <v>No hemos tenido ninguna experiencia de facturación con la empresa.</v>
       </c>
       <c r="D173" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="174">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -2835,7 +2835,7 @@
         <v>Es seguro que ninguna comunicación corresponde a ninguna mentira.</v>
       </c>
       <c r="D174" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="175">
@@ -2849,7 +2849,7 @@
         <v>Si tienes mala salud, un hogar de ancianos es una buena idea.</v>
       </c>
       <c r="D175" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="176">
@@ -2863,7 +2863,7 @@
         <v>La demanda del producto aumentaría si se ofreciera de forma gratuita.</v>
       </c>
       <c r="D176" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="177">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -2877,7 +2877,7 @@
         <v>Estaban dispuestos a enfrentar las duras condiciones y quedarse en Rusia.</v>
       </c>
       <c r="D177" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="178">
@@ -2891,7 +2891,7 @@
         <v>No tenemos presupuestos por grado.</v>
       </c>
       <c r="D178" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="179">
@@ -2905,7 +2905,7 @@
         <v>El Palazzo Grassi del siglo XVIII sería impresentable si no fuera por Gae Aulenti.</v>
       </c>
       <c r="D179" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="180">
@@ -2919,7 +2919,7 @@
         <v>Los padres que trabajan con sus hijos los ponen en una gran desventaja.</v>
       </c>
       <c r="D180" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="181">
@@ -2933,7 +2933,7 @@
         <v>No aprendimos sobre esto de él.</v>
       </c>
       <c r="D181" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="182">
@@ -2947,7 +2947,7 @@
         <v>Lincoln no estaba preocupado y caminó despacio.</v>
       </c>
       <c r="D182" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="183">
@@ -2961,7 +2961,7 @@
         <v>Me pregunté si lo hice bien.</v>
       </c>
       <c r="D183" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="184">
@@ -2975,7 +2975,7 @@
         <v>Te golpeé con mi pequeña espada.</v>
       </c>
       <c r="D184" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="185">
@@ -2989,7 +2989,7 @@
         <v>Es obvio que ganamos.</v>
       </c>
       <c r="D185" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="186">
@@ -3003,7 +3003,7 @@
         <v>Cuando no hay sol, siento que estoy viviendo en una cueva.</v>
       </c>
       <c r="D186" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="187">
@@ -3017,7 +3017,7 @@
         <v>Caminar te hará perderte.</v>
       </c>
       <c r="D187" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="188">
@@ -3031,7 +3031,7 @@
         <v>Las quejas en las filas no dieron ningún resultado.</v>
       </c>
       <c r="D188" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="189">
@@ -3059,7 +3059,7 @@
         <v>Tengo razones para sospechar que la chica de Manchester era simplemente un infiltrado.</v>
       </c>
       <c r="D190" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="191">
@@ -3073,7 +3073,7 @@
         <v>Los mandamientos no son una religión.</v>
       </c>
       <c r="D191" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="192">
@@ -3087,7 +3087,7 @@
         <v>Si la organización tiene una comprensión clara de sus objetivos comerciales, podrá utilizar el sistema de información propuesto para alcanzar esos objetivos.</v>
       </c>
       <c r="D192" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="193">
@@ -3101,7 +3101,7 @@
         <v>Él no cometería un error.</v>
       </c>
       <c r="D193" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="194">
@@ -3115,7 +3115,7 @@
         <v>El producto se prueba por su capacidad para resistir condiciones ambientales adversas.</v>
       </c>
       <c r="D194" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="195">
@@ -3129,7 +3129,7 @@
         <v>Dirán que estaban listos para irse.</v>
       </c>
       <c r="D195" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="196">
@@ -3143,7 +3143,7 @@
         <v>Tendremos que cambiar las reglas.</v>
       </c>
       <c r="D196" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="197">
@@ -3157,7 +3157,7 @@
         <v>No estoy en la dirección.</v>
       </c>
       <c r="D197" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="198">
@@ -3171,7 +3171,7 @@
         <v>El país podría controlar el ejército.</v>
       </c>
       <c r="D198" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="199">
@@ -3185,7 +3185,7 @@
         <v>Si la policía cree que el crimen fue cometido por una sola persona, arrestarán a esa persona.</v>
       </c>
       <c r="D199" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="200">
@@ -3199,7 +3199,7 @@
         <v>Lo haré yo mismo.</v>
       </c>
       <c r="D200" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="201">
@@ -3213,7 +3213,7 @@
         <v>El sistema de salud estaría bajo estrés si se implementara la nueva política.</v>
       </c>
       <c r="D201" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="202">
@@ -3227,7 +3227,7 @@
         <v>Puedo hacerlo.</v>
       </c>
       <c r="D202" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="203">
@@ -3241,7 +3241,7 @@
         <v>Los demócratas ganarán la Casa Blanca.</v>
       </c>
       <c r="D203" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="204">
@@ -3255,7 +3255,7 @@
         <v>Te escribiré una carta.</v>
       </c>
       <c r="D204" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="205">
@@ -3269,7 +3269,7 @@
         <v>Puedes tomar el tren.</v>
       </c>
       <c r="D205" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="206">
@@ -3283,7 +3283,7 @@
         <v>Ella era sarcástica si ponía los ojos en blanco.</v>
       </c>
       <c r="D206" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="207">
@@ -3297,7 +3297,7 @@
         <v>No te vas a ir.</v>
       </c>
       <c r="D207" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="208">
@@ -3311,7 +3311,7 @@
         <v>El costo de las pruebas sería alto.</v>
       </c>
       <c r="D208" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="209">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -3325,7 +3325,7 @@
         <v>Si no obtienes algo, no lo mereces.</v>
       </c>
       <c r="D209" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="210">
@@ -3339,7 +3339,7 @@
         <v>No soy un tipo inteligente.</v>
       </c>
       <c r="D210" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="211">
@@ -3367,7 +3367,7 @@
         <v>El hombre en la luna no tiene ningún mensaje que enviar.</v>
       </c>
       <c r="D212" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="213">
@@ -3381,7 +3381,7 @@
         <v>Terminarás como yo.</v>
       </c>
       <c r="D213" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="214">
@@ -3395,7 +3395,7 @@
         <v>Si no puedes recordar, esta conversación ha terminado.</v>
       </c>
       <c r="D214" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="215">
@@ -3409,7 +3409,7 @@
         <v>Seremos el único país en el mundo que no lo hará.</v>
       </c>
       <c r="D215" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="216">
@@ -3423,7 +3423,7 @@
         <v>El servicio postal no está cerrado.</v>
       </c>
       <c r="D216" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="217">
@@ -3437,7 +3437,7 @@
         <v>Los vietnamitas del norte no nos habrían atacado si no les hubiéramos atacado.</v>
       </c>
       <c r="D217" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="218">
@@ -3451,7 +3451,7 @@
         <v>La idea no está bien pensada.</v>
       </c>
       <c r="D218" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="219">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -3465,7 +3465,7 @@
         <v>Un cuchillo fue hundido en mi corazón.</v>
       </c>
       <c r="D219" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="220">
@@ -3479,7 +3479,7 @@
         <v>Si no haces lo que digo, tendrás que enfrentarte a las consecuencias.</v>
       </c>
       <c r="D220" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="221">
@@ -3493,7 +3493,7 @@
         <v>Si eres inocente, se presume que eres inocente.</v>
       </c>
       <c r="D221" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="222">
@@ -3507,7 +3507,7 @@
         <v>El Senado aprobó el presupuesto.</v>
       </c>
       <c r="D222" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="223">
@@ -3521,7 +3521,7 @@
         <v>No se puede confiar en ti con un arma.</v>
       </c>
       <c r="D223" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="224">
@@ -3535,7 +3535,7 @@
         <v>La desviación estándar de la distribución de los márgenes de beneficio de la ruta de entrega es pequeña.</v>
       </c>
       <c r="D224" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="225">
@@ -3549,7 +3549,7 @@
         <v>Las preguntas no son las mismas.</v>
       </c>
       <c r="D225" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="226">
@@ -3563,7 +3563,7 @@
         <v>El viejo adagio es cierto.</v>
       </c>
       <c r="D226" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="227">
@@ -3577,7 +3577,7 @@
         <v>Se esperaba que el gobernador nombrara a un fiscal especial.</v>
       </c>
       <c r="D227" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="228">
@@ -3591,7 +3591,7 @@
         <v>Los Estados Unidos se convertirían en una república bananera.</v>
       </c>
       <c r="D228" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="229">
@@ -3605,7 +3605,7 @@
         <v>El resultado es:</v>
       </c>
       <c r="D229" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="230">
@@ -3619,7 +3619,7 @@
         <v>Los vigilantes solo pueden mantener un ojo atento en las cosas si mantienen un ojo atento en los vigilantes.</v>
       </c>
       <c r="D230" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="231">
@@ -3633,7 +3633,7 @@
         <v>El resultado de esto fue generar más interés público en las artes.</v>
       </c>
       <c r="D231" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="232">
@@ -3647,7 +3647,7 @@
         <v>Las causas raíz del problema no están siendo identificadas.</v>
       </c>
       <c r="D232" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="233">
@@ -3661,7 +3661,7 @@
         <v>El libro es mágico.</v>
       </c>
       <c r="D233" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="234">
@@ -3675,7 +3675,7 @@
         <v>Si pides una buena mesa, recibirás una buena mesa.</v>
       </c>
       <c r="D234" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="235">
@@ -3689,7 +3689,7 @@
         <v>Es imposible que un escenario similar ocurra en el futuro.</v>
       </c>
       <c r="D235" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="236">
@@ -3703,7 +3703,7 @@
         <v>El valor razonable de la propiedad transferida es el mismo que el valor de la propiedad recibida.</v>
       </c>
       <c r="D236" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="237">
@@ -3717,7 +3717,7 @@
         <v>El tipo que lo inventó tiene un problema con ello.</v>
       </c>
       <c r="D237" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="238">
@@ -3731,7 +3731,7 @@
         <v>Si se puede decir que tenemos una única identidad, es una identidad colectiva.</v>
       </c>
       <c r="D238" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="239">
@@ -3745,7 +3745,7 @@
         <v>Usar tu traje a la fiesta no es de mala suerte.</v>
       </c>
       <c r="D239" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="240">
@@ -3759,7 +3759,7 @@
         <v>El perro no estaba en la habitación, así que el ruido no era audible.</v>
       </c>
       <c r="D240" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="241">
@@ -3773,7 +3773,7 @@
         <v>El Führer no ordenó la destrucción de los judíos en los campos de concentración.</v>
       </c>
       <c r="D241" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="242">
@@ -3787,7 +3787,7 @@
         <v>Si estuvieras en mi lugar, serías más cuidadoso.</v>
       </c>
       <c r="D242" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="243">
@@ -3801,7 +3801,7 @@
         <v>Sé que esto es verdad.</v>
       </c>
       <c r="D243" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="244">
@@ -3815,7 +3815,7 @@
         <v>Se le consideraba un tonto si no se había detenido.</v>
       </c>
       <c r="D244" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="245">
@@ -3829,7 +3829,7 @@
         <v>Si me quedo dormido, me perderé la película.</v>
       </c>
       <c r="D245" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="246">
@@ -3843,7 +3843,7 @@
         <v>La instalación no podrá determinar si cumple con los requisitos de la norma.</v>
       </c>
       <c r="D246" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="247">
@@ -3857,7 +3857,7 @@
         <v>Ella parece como si acabara de recibir su pago.</v>
       </c>
       <c r="D247" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="248">
@@ -3871,7 +3871,7 @@
         <v>No tendré que hacerlo.</v>
       </c>
       <c r="D248" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="249">
@@ -3885,7 +3885,7 @@
         <v>El presidente es un político.</v>
       </c>
       <c r="D249" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="250">
@@ -3899,7 +3899,7 @@
         <v>Si no hay una amenaza clara, es una buena idea inventar una.</v>
       </c>
       <c r="D250" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="251">
@@ -3913,7 +3913,7 @@
         <v>El partido tomará una posición sobre el asunto.</v>
       </c>
       <c r="D251" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="252">
@@ -3927,7 +3927,7 @@
         <v>El Servicio Postal podrá cumplir con su obligación actual ante el gobierno federal por los beneficios de salud de los jubilados, al menos durante los próximos diez años.</v>
       </c>
       <c r="D252" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="253">
@@ -3941,7 +3941,7 @@
         <v>La crisis seguirá empeorando.</v>
       </c>
       <c r="D253" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="254">
@@ -3955,7 +3955,7 @@
         <v>Tener un alto nivel de deuda es un problema.</v>
       </c>
       <c r="D254" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="255">
@@ -3969,7 +3969,7 @@
         <v>La guerra no ha terminado.</v>
       </c>
       <c r="D255" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="256">
@@ -3983,7 +3983,7 @@
         <v>La mejor manera de resolver el problema es deshacerse de todos los coches.</v>
       </c>
       <c r="D256" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="257">
@@ -3997,7 +3997,7 @@
         <v>El consejo municipal tendrá que hacerlo.</v>
       </c>
       <c r="D257" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="258">
@@ -4011,7 +4011,7 @@
         <v>Si tienes que esperar mucho en la fila, no vayas al bar de snacks. Generalmente está lleno de niños ruidosos.</v>
       </c>
       <c r="D258" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="259">
@@ -4025,7 +4025,7 @@
         <v>Si no lo haces, te arrepentirás.</v>
       </c>
       <c r="D259" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="260">
@@ -4039,7 +4039,7 @@
         <v>La tecnología del mañana es capaz de abordar los problemas de hoy.</v>
       </c>
       <c r="D260" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="261">
@@ -4053,7 +4053,7 @@
         <v>El proceso de socialización y aprendizaje que tiene lugar en la familia y en la escuela se interrumpe.</v>
       </c>
       <c r="D261" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="262">
@@ -4067,7 +4067,7 @@
         <v>El vino se puede convertir en vinagre.</v>
       </c>
       <c r="D262" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="263">
@@ -4081,7 +4081,7 @@
         <v>El dólar caerá y el yen subirá.</v>
       </c>
       <c r="D263" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="264">
@@ -4095,7 +4095,7 @@
         <v>La enmienda entrará en vigor el 1 de enero de 2017.</v>
       </c>
       <c r="D264" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="265">
@@ -4109,7 +4109,7 @@
         <v>Lo único que nos salvará es si somos capaces de alcanzar el área de entendimiento mutuo.</v>
       </c>
       <c r="D265" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="266">
@@ -4123,7 +4123,7 @@
         <v>El distrito escolar no puede emitir bonos.</v>
       </c>
       <c r="D266" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="267">
@@ -4137,7 +4137,7 @@
         <v>No está claro que la productividad laboral se ajuste si los costos laborales no se ajustan.</v>
       </c>
       <c r="D267" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="268">
@@ -4151,7 +4151,7 @@
         <v>Los buenos no son necesariamente malos.</v>
       </c>
       <c r="D268" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="269">
@@ -4165,7 +4165,7 @@
         <v>El Sr. Smithers ha visto un fantasma.</v>
       </c>
       <c r="D269" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="270">
@@ -4179,7 +4179,7 @@
         <v>El modelo actual es malo.</v>
       </c>
       <c r="D270" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="271">
@@ -4193,7 +4193,7 @@
         <v>Identificar el consumo excesivo de alcohol en los pacientes no se determina estrictamente por el número de bebidas consumidas en una sola sesión.</v>
       </c>
       <c r="D271" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="272">
@@ -4207,7 +4207,7 @@
         <v>El productor tendrá que pagar el salario mínimo.</v>
       </c>
       <c r="D272" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="273">
@@ -4221,7 +4221,7 @@
         <v>El nuevo contrato entrará en vigor el 1 de enero de 2015.</v>
       </c>
       <c r="D273" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="274">
@@ -4235,7 +4235,7 @@
         <v>Yo habría sabido cómo hacerlo.</v>
       </c>
       <c r="D274" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="275">
@@ -4249,7 +4249,7 @@
         <v>Si no eres demasiado perfeccionista, podrás hacer un buen producto.</v>
       </c>
       <c r="D275" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="276">
@@ -4263,7 +4263,7 @@
         <v>El sector financiero no es importante.</v>
       </c>
       <c r="D276" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="277">
@@ -4277,7 +4277,7 @@
         <v>El siguiente paso apropiado es contactar el programa de Admisión para obtener una referencia al programa de Admisión II.</v>
       </c>
       <c r="D277" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="278">
@@ -4291,7 +4291,7 @@
         <v>Los soldados ya están muertos.</v>
       </c>
       <c r="D278" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="279">
@@ -4305,7 +4305,7 @@
         <v>Tengo que encontrar un trabajo.</v>
       </c>
       <c r="D279" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="280">
@@ -4319,7 +4319,7 @@
         <v>Dijo que iría conmigo a un concierto en el Albert Hall.</v>
       </c>
       <c r="D280" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="281">
@@ -4333,7 +4333,7 @@
         <v>Aún no lo he leído.</v>
       </c>
       <c r="D281" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="282">
@@ -4347,7 +4347,7 @@
         <v>Si la tasa de interés actual se mantiene igual, el precio del mercado de valores del tesoro se mantiene igual.</v>
       </c>
       <c r="D282" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="283">
@@ -4361,7 +4361,7 @@
         <v>Las organizaciones sin fines de lucro no tienen el poder de cambiar el mundo.</v>
       </c>
       <c r="D283" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="284">
@@ -4375,7 +4375,7 @@
         <v>Lo habría hecho, si estuviera en una posición para ayudar.</v>
       </c>
       <c r="D284" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="285">
@@ -4389,7 +4389,7 @@
         <v>La máquina no era el jefe del trabajador.</v>
       </c>
       <c r="D285" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="286">
@@ -4403,7 +4403,7 @@
         <v>Estás seguro.</v>
       </c>
       <c r="D286" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="287">
@@ -4417,7 +4417,7 @@
         <v>Esto tendrá que ser reevaluado.</v>
       </c>
       <c r="D287" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="288">
@@ -4431,7 +4431,7 @@
         <v>Creo que eres muy inteligente.</v>
       </c>
       <c r="D288" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="289">
@@ -4445,7 +4445,7 @@
         <v>Él habría respondido de todos modos.</v>
       </c>
       <c r="D289" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="290">
@@ -4459,7 +4459,7 @@
         <v>No pueden permitirse ir al cine.</v>
       </c>
       <c r="D290" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="291">
@@ -4473,7 +4473,7 @@
         <v>Si tienes que tener una discusión, tenla con tu novia.</v>
       </c>
       <c r="D291" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="292">
@@ -4487,7 +4487,7 @@
         <v>Si tenemos un par de opuestos, siempre podemos obtener una falsa dicotomía.</v>
       </c>
       <c r="D292" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="293">
@@ -4501,7 +4501,7 @@
         <v>La empresa será cerrada.</v>
       </c>
       <c r="D293" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="294">
@@ -4515,7 +4515,7 @@
         <v>El país no tiene interés en el problema, porque los medios han decidido ignorarlo.</v>
       </c>
       <c r="D294" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="295">
@@ -4529,7 +4529,7 @@
         <v>El niño no es ilegítimo.</v>
       </c>
       <c r="D295" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="296">
@@ -4543,7 +4543,7 @@
         <v>Si se aprueba la nueva legislación, se creará un Ministerio de Asuntos de la Mujer.</v>
       </c>
       <c r="D296" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="297">
@@ -4557,7 +4557,7 @@
         <v>El ejército ha sido reducido considerablemente en tamaño.</v>
       </c>
       <c r="D297" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="298">
@@ -4571,7 +4571,7 @@
         <v>Si no haces las reparaciones, serás responsable del costo total de las reparaciones.</v>
       </c>
       <c r="D298" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="299">
@@ -4585,7 +4585,7 @@
         <v>Si tienes una queja, escribe al presidente.</v>
       </c>
       <c r="D299" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="300">
@@ -4599,7 +4599,7 @@
         <v>Sabía que me lo dirías.</v>
       </c>
       <c r="D300" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="301">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -4627,7 +4627,7 @@
         <v>Brook probó la comida tailandesa por primera vez.</v>
       </c>
       <c r="D302" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="303">
@@ -4641,7 +4641,7 @@
         <v>P60 es la carta de un miembro de la junta escolar al editor en la que relata lo que sucede en el caso.</v>
       </c>
       <c r="D303" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="304">
@@ -4655,7 +4655,7 @@
         <v>Las bibliotecas escolares tienen anuarios.</v>
       </c>
       <c r="D304" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="305">
@@ -4669,7 +4669,7 @@
         <v>Esta historia fue reportada por un hombre.</v>
       </c>
       <c r="D305" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="306">
@@ -4683,7 +4683,7 @@
         <v>La guía no aconseja a las personas preparar café a media tarde.</v>
       </c>
       <c r="D306" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="307">
@@ -4697,7 +4697,7 @@
         <v>No me llevaba bien con Jason.</v>
       </c>
       <c r="D307" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="308">
@@ -4711,7 +4711,7 @@
         <v>Se estaban refiriendo a un violín.</v>
       </c>
       <c r="D308" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="309">
@@ -4725,7 +4725,7 @@
         <v>Algunas sustancias deben ser retiradas del mercado debido a su impacto ambiental.</v>
       </c>
       <c r="D309" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="310">
@@ -4739,7 +4739,7 @@
         <v>La comisión está considerando una propuesta sobre energía eólica.</v>
       </c>
       <c r="D310" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="311">
@@ -4753,7 +4753,7 @@
         <v>El hombre desprecia a Alemania.</v>
       </c>
       <c r="D311" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="312">
@@ -4767,7 +4767,7 @@
         <v>Se necesitará agua.</v>
       </c>
       <c r="D312" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="313">
@@ -4781,7 +4781,7 @@
         <v>Mark Cavendish se retiró del Tour de Francia.</v>
       </c>
       <c r="D313" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="314">
@@ -4795,7 +4795,7 @@
         <v>Después de que indiques por qué crees que ella es una buena fuente para tu historia, espera hasta después de la entrevista para chantajearla.</v>
       </c>
       <c r="D314" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="315">
@@ -4809,7 +4809,7 @@
         <v>Los realistas solo visten de amarillo.</v>
       </c>
       <c r="D315" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="316">
@@ -4823,7 +4823,7 @@
         <v>piensa en un buen recuerdo que puede ser útil para escribir una carta</v>
       </c>
       <c r="D316" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="317">
@@ -4837,7 +4837,7 @@
         <v>la flecha derecha mostró el camino correcto</v>
       </c>
       <c r="D317" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="318">
@@ -4851,7 +4851,7 @@
         <v>Algunas frutas son mejor evitarlas.</v>
       </c>
       <c r="D318" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="319">
@@ -4865,7 +4865,7 @@
         <v>Tie Dye cumplirá dieciocho años en su próximo cumpleaños.</v>
       </c>
       <c r="D319" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="320">
@@ -4879,7 +4879,7 @@
         <v>El nuevo estudiante necesitaba que le mostraran el lugar.</v>
       </c>
       <c r="D320" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="321">
@@ -4893,7 +4893,7 @@
         <v>Los europeos son mantenedores de la paz en Bosnia.</v>
       </c>
       <c r="D321" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="322">
@@ -4907,7 +4907,7 @@
         <v>El caballo necesita ser un caballo manso.</v>
       </c>
       <c r="D322" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="323">
@@ -4921,7 +4921,7 @@
         <v>El proceso se puede utilizar para copiar DVDs.</v>
       </c>
       <c r="D323" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="324">
@@ -4935,7 +4935,7 @@
         <v>El inspector lo certificó pero estaba al tanto de los problemas.</v>
       </c>
       <c r="D324" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="325">
@@ -4949,7 +4949,7 @@
         <v>Suzy necesitaba un corte.</v>
       </c>
       <c r="D325" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="326">
@@ -4963,7 +4963,7 @@
         <v>Era un juguete usado.</v>
       </c>
       <c r="D326" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="327">
@@ -4977,7 +4977,7 @@
         <v>Las armas son caras y la policía necesita que se les redirija el dinero.</v>
       </c>
       <c r="D327" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="328">
@@ -4991,7 +4991,7 @@
         <v>Maya odiaba su escuela.</v>
       </c>
       <c r="D328" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="329">
@@ -5005,7 +5005,7 @@
         <v>La última declaración en este contexto es un comentario sarcástico.</v>
       </c>
       <c r="D329" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="330">
@@ -5019,7 +5019,7 @@
         <v>Randy solo bebe el 11% de las bebidas que compra.</v>
       </c>
       <c r="D330" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="331">
@@ -5033,7 +5033,7 @@
         <v>Asegúrate de lavarte las manos primero con un jabón antibacterial y enjuagarlas bien con mucha agua.</v>
       </c>
       <c r="D331" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="332">
@@ -5047,7 +5047,7 @@
         <v>Hellgate fue lanzado en América antes que en Tailandia.</v>
       </c>
       <c r="D332" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="333">
@@ -5061,7 +5061,7 @@
         <v>Su oficina ha actuado como supervisora de los diversos códigos de privacidad durante muchos años.</v>
       </c>
       <c r="D333" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="334">
@@ -5075,7 +5075,7 @@
         <v>Sarah no compró jugo de repollo.</v>
       </c>
       <c r="D334" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="335">
@@ -5089,7 +5089,7 @@
         <v>Dire Straits nunca quiso ser popular en los Estados Unidos.</v>
       </c>
       <c r="D335" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="336">
@@ -5103,7 +5103,7 @@
         <v>Las personas saludables nunca se enferman.</v>
       </c>
       <c r="D336" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="337">
@@ -5117,7 +5117,7 @@
         <v>Ethan visitó al vecino de América.</v>
       </c>
       <c r="D337" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="338">
@@ -5131,7 +5131,7 @@
         <v>Las medidas presupuestarias incluyen préstamos que se pagan.</v>
       </c>
       <c r="D338" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="339">
@@ -5145,7 +5145,7 @@
         <v>Tim necesita bandejas nuevas.</v>
       </c>
       <c r="D339" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="340">
@@ -5159,7 +5159,7 @@
         <v>Tim terminó dejando a su prometida antes de la boda debido a la despedida de soltero.</v>
       </c>
       <c r="D340" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="341">
@@ -5173,7 +5173,7 @@
         <v>Las leyes de armas son cruciales, pero no son amor hacia los niños.</v>
       </c>
       <c r="D341" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="342">
@@ -5187,7 +5187,7 @@
         <v>El Comisionado de Privacidad ha sido un defensor de la supervisión.</v>
       </c>
       <c r="D342" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="343">
@@ -5201,7 +5201,7 @@
         <v>Steven ha nadado durante mucho tiempo.</v>
       </c>
       <c r="D343" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="344">
@@ -5215,7 +5215,7 @@
         <v>El Consejo Legislativo de Tasmania quiere mudarse de Hobart.</v>
       </c>
       <c r="D344" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="345">
@@ -5229,7 +5229,7 @@
         <v>Apoyan el tratado de la alianza del norte.</v>
       </c>
       <c r="D345" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="346">
@@ -5243,7 +5243,7 @@
         <v>Alimentar a cachorros recién nacidos requiere muchos suministros.</v>
       </c>
       <c r="D346" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="347">
@@ -5257,7 +5257,7 @@
         <v>El parasailing fue un sueño hecho realidad para Lucy.</v>
       </c>
       <c r="D347" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="348">
@@ -5271,7 +5271,7 @@
         <v>El Tío Sam llamó a su primer álbum "Tío Sammy".</v>
       </c>
       <c r="D348" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="349">
@@ -5285,7 +5285,7 @@
         <v>El demandante se opone a que los comentarios del juez queden registrados.</v>
       </c>
       <c r="D349" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="350">
@@ -5299,7 +5299,7 @@
         <v>Reba perdió su reloj a manos de un asaltante.</v>
       </c>
       <c r="D350" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="351">
@@ -5313,7 +5313,7 @@
         <v>Pon una sartén en la estufa.</v>
       </c>
       <c r="D351" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="352">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -5327,7 +5327,7 @@
         <v>Ha dirigido películas como "Hank y la búsqueda de la felicidad", "Serendipia" y "¿Bailamos?".</v>
       </c>
       <c r="D352" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="353">
@@ -5341,7 +5341,7 @@
         <v>La solución no se basa en una lucha activa contra la mafia de drogas colombiana.</v>
       </c>
       <c r="D353" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="354">
@@ -5355,7 +5355,7 @@
         <v>Se necesita una silla muy grande para hacer un batido de sandía usando un taladro.</v>
       </c>
       <c r="D354" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="355">
@@ -5369,7 +5369,7 @@
         <v>Josh extraña su hogar.</v>
       </c>
       <c r="D355" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="356">
@@ -5383,7 +5383,7 @@
         <v>El presidente inició una guerra.</v>
       </c>
       <c r="D356" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="357">
@@ -5397,7 +5397,7 @@
         <v>mi esposo tenía razón sobre que soy mala en el golf</v>
       </c>
       <c r="D357" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="358">
@@ -5411,7 +5411,7 @@
         <v>Alejandro Ghersi es un productor mexicano.</v>
       </c>
       <c r="D358" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="359">
@@ -5425,7 +5425,7 @@
         <v>salieron a las nueve y media de la mañana.</v>
       </c>
       <c r="D359" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="360">
@@ -5439,7 +5439,7 @@
         <v>El Partido Conservador en Canadá quiere discutir la vivienda asequible en la Cámara de los Comunes.</v>
       </c>
       <c r="D360" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="361">
@@ -5453,7 +5453,7 @@
         <v>el cianuro no es necesario</v>
       </c>
       <c r="D361" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="362">
@@ -5467,7 +5467,7 @@
         <v>Ella voló sobre el río.</v>
       </c>
       <c r="D362" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="363">
@@ -5481,7 +5481,7 @@
         <v>El narrador quiere saber si al Sr. Landry se le dio toda la información.</v>
       </c>
       <c r="D363" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="364">
@@ -5495,7 +5495,7 @@
         <v>Espero que la Ministra de Desarrollo de Especies Humanas y sus funcionarios realmente tomen en cuenta lo que dije.</v>
       </c>
       <c r="D364" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="365">
@@ -5509,7 +5509,7 @@
         <v>Correr los 100 metros lisos requiere poco entrenamiento de resistencia.</v>
       </c>
       <c r="D365" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="366">
@@ -5523,7 +5523,7 @@
         <v>Alan Metter ha dirigido películas de guerra.</v>
       </c>
       <c r="D366" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="367">
@@ -5537,7 +5537,7 @@
         <v>El Jihad Islámico quiere que liberen a su líder y que se levante el embargo sobre Irán.</v>
       </c>
       <c r="D367" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="368">
@@ -5551,7 +5551,7 @@
         <v>anna interactúa con personas</v>
       </c>
       <c r="D368" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="369">
@@ -5565,7 +5565,7 @@
         <v>El árbol se cayó.</v>
       </c>
       <c r="D369" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="370">
@@ -5579,7 +5579,7 @@
         <v>La legislación laboral ha avanzado en la Cámara.</v>
       </c>
       <c r="D370" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="371">
@@ -5593,7 +5593,7 @@
         <v>Kevin Vincent, de 44 años, de Arlington, Va., dijo que su esposa compra acetaminofén de la marca Aleve y quería saber más sobre el problema.</v>
       </c>
       <c r="D371" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="372">
@@ -5607,7 +5607,7 @@
         <v>Las camisas rojas son apoyos de los rurales y los pobres y apoyan al Primer Ministro.</v>
       </c>
       <c r="D372" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="373">
@@ -5621,7 +5621,7 @@
         <v>Randy compró un poco de vodka.</v>
       </c>
       <c r="D373" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="374">
@@ -5635,7 +5635,7 @@
         <v>Los ciudadanos no querían un nuevo presidente.</v>
       </c>
       <c r="D374" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="375">
@@ -5649,7 +5649,7 @@
         <v>Braun Strowman tiene un problema con Brock Lesnar.</v>
       </c>
       <c r="D375" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="376">
@@ -5663,7 +5663,7 @@
         <v>Ethan comió comida italiana.</v>
       </c>
       <c r="D376" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="377">
@@ -5677,7 +5677,7 @@
         <v>Tu plan de datos es decidido por tu proveedor de telefonía.</v>
       </c>
       <c r="D377" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="378">
@@ -5691,7 +5691,7 @@
         <v>El gobernador le dijo a Caleb que se mantuviera en el lado cercano de la carretera al regresar a casa.</v>
       </c>
       <c r="D378" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="379">
@@ -5705,7 +5705,7 @@
         <v>La canción "I Don't Know What It Is" de Rufus Wainwright fue lanzada después de su segundo álbum pero antes del 27 de julio de 2004.</v>
       </c>
       <c r="D379" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="380">
@@ -5719,7 +5719,7 @@
         <v>En la década de 1950, el FBI de los Estados Unidos comenzó a mantener una lista pública de las personas que consideraba los Diez Villanos Más Buscados.</v>
       </c>
       <c r="D380" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="381">
@@ -5733,7 +5733,7 @@
         <v>El segundo paso para convertirse en un buen jefe en un rol particular es tener una excelente comprensión del trabajo y de lo que se necesita para tener éxito.</v>
       </c>
       <c r="D381" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="382">
@@ -5747,7 +5747,7 @@
         <v>Un texto anónimo no revela tu nombre.</v>
       </c>
       <c r="D382" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="383">
@@ -5761,7 +5761,7 @@
         <v>Bath, Maine y el Condado de Sagadahoc fueron representados por la Líder de la Mayoría Demócrata, Mary Small.</v>
       </c>
       <c r="D383" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="384">
@@ -5775,7 +5775,7 @@
         <v>La hija de Kate es antisocial.</v>
       </c>
       <c r="D384" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="385">
@@ -5789,7 +5789,7 @@
         <v>Pamunuwa no se encuentra en la Provincia del Este.</v>
       </c>
       <c r="D385" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="386">
@@ -5817,7 +5817,7 @@
         <v>Sammy practicó béisbol con diligencia.</v>
       </c>
       <c r="D387" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="388">
@@ -5831,7 +5831,7 @@
         <v>El pasatiempo de la infancia de Steven se convirtió en una carrera.</v>
       </c>
       <c r="D388" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="389">
@@ -5845,7 +5845,7 @@
         <v>La gente en el gobierno se está echando la culpa unos a otros y siendo odiosa.</v>
       </c>
       <c r="D389" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="390">
@@ -5859,7 +5859,7 @@
         <v>What a Girl Wants obtuvo una certificación de plata en Bélgica.</v>
       </c>
       <c r="D390" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="391">
@@ -5873,7 +5873,7 @@
         <v>La anorexia nerviosa se cree erróneamente que se caracteriza por la restricción de alimentos.</v>
       </c>
       <c r="D391" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="392">
@@ -5887,7 +5887,7 @@
         <v>Tina Turner hizo una canción para una película de Indiana Jones.</v>
       </c>
       <c r="D392" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="393">
@@ -5901,7 +5901,7 @@
         <v>Wyatt Earp era un humano.</v>
       </c>
       <c r="D393" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="394">
@@ -5915,7 +5915,7 @@
         <v>Tina Turner hizo una canción para Golden Eye.</v>
       </c>
       <c r="D394" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="395">
@@ -5929,7 +5929,7 @@
         <v>Demi Lovato es una defensora de los bocadillos.</v>
       </c>
       <c r="D395" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="396">
@@ -5943,7 +5943,7 @@
         <v>DJ Khaled cambió su nombre después del 11 de septiembre de 2008.</v>
       </c>
       <c r="D396" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="397">
@@ -5957,7 +5957,7 @@
         <v>Barbara Bush fundó la Fundación Barbara Bush para la Alfabetización Infantil.</v>
       </c>
       <c r="D397" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="398">
@@ -5971,7 +5971,7 @@
         <v>Randall Flagg ha sido presentado en La Danza de la Muerte y La Torre Oscura.</v>
       </c>
       <c r="D398" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="399">
@@ -5985,7 +5985,7 @@
         <v>What a Girl Wants obtuvo una certificación de oro en EE. UU.</v>
       </c>
       <c r="D399" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="400">
@@ -5999,7 +5999,7 @@
         <v>Megan Fox trabajó con Faith Ford.</v>
       </c>
       <c r="D400" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="401">
@@ -6013,7 +6013,7 @@
         <v>El Caballero de la Noche tiene lugar en Gotham City.</v>
       </c>
       <c r="D401" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="402">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -5383,7 +5383,7 @@
         <v>El presidente inició una guerra.</v>
       </c>
       <c r="D356" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="357">
@@ -5397,7 +5397,7 @@
         <v>mi esposo tenía razón sobre que soy mala en el golf</v>
       </c>
       <c r="D357" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="358">
@@ -5439,7 +5439,7 @@
         <v>El Partido Conservador en Canadá quiere discutir la vivienda asequible en la Cámara de los Comunes.</v>
       </c>
       <c r="D360" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="361">
@@ -5453,7 +5453,7 @@
         <v>el cianuro no es necesario</v>
       </c>
       <c r="D361" t="str">
-        <v>Contradiction</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="362">
@@ -5495,7 +5495,7 @@
         <v>Espero que la Ministra de Desarrollo de Especies Humanas y sus funcionarios realmente tomen en cuenta lo que dije.</v>
       </c>
       <c r="D364" t="str">
-        <v>Entailment</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="365">
@@ -5579,7 +5579,7 @@
         <v>La legislación laboral ha avanzado en la Cámara.</v>
       </c>
       <c r="D370" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="371">
@@ -5607,7 +5607,7 @@
         <v>Las camisas rojas son apoyos de los rurales y los pobres y apoyan al Primer Ministro.</v>
       </c>
       <c r="D372" t="str">
-        <v>Neutral</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="373">
@@ -5705,7 +5705,7 @@
         <v>La canción "I Don't Know What It Is" de Rufus Wainwright fue lanzada después de su segundo álbum pero antes del 27 de julio de 2004.</v>
       </c>
       <c r="D379" t="str">
-        <v>Contradiction</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="380">
@@ -5719,7 +5719,7 @@
         <v>En la década de 1950, el FBI de los Estados Unidos comenzó a mantener una lista pública de las personas que consideraba los Diez Villanos Más Buscados.</v>
       </c>
       <c r="D380" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="381">
@@ -5733,7 +5733,7 @@
         <v>El segundo paso para convertirse en un buen jefe en un rol particular es tener una excelente comprensión del trabajo y de lo que se necesita para tener éxito.</v>
       </c>
       <c r="D381" t="str">
-        <v>Neutral</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="382">
@@ -5761,7 +5761,7 @@
         <v>Bath, Maine y el Condado de Sagadahoc fueron representados por la Líder de la Mayoría Demócrata, Mary Small.</v>
       </c>
       <c r="D383" t="str">
-        <v>Neutral</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="384">
@@ -5789,7 +5789,7 @@
         <v>Pamunuwa no se encuentra en la Provincia del Este.</v>
       </c>
       <c r="D385" t="str">
-        <v>Contradiction</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="386">
@@ -5845,7 +5845,7 @@
         <v>La gente en el gobierno se está echando la culpa unos a otros y siendo odiosa.</v>
       </c>
       <c r="D389" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="390">
@@ -5859,7 +5859,7 @@
         <v>What a Girl Wants obtuvo una certificación de plata en Bélgica.</v>
       </c>
       <c r="D390" t="str">
-        <v>Neutral</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="391">
@@ -5887,7 +5887,7 @@
         <v>Tina Turner hizo una canción para una película de Indiana Jones.</v>
       </c>
       <c r="D392" t="str">
-        <v>Neutral</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="393">
@@ -5915,7 +5915,7 @@
         <v>Tina Turner hizo una canción para Golden Eye.</v>
       </c>
       <c r="D394" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="395">
@@ -5943,7 +5943,7 @@
         <v>DJ Khaled cambió su nombre después del 11 de septiembre de 2008.</v>
       </c>
       <c r="D396" t="str">
-        <v>Entailment</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="397">
@@ -5957,7 +5957,7 @@
         <v>Barbara Bush fundó la Fundación Barbara Bush para la Alfabetización Infantil.</v>
       </c>
       <c r="D397" t="str">
-        <v>Entailment</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="398">
@@ -5985,7 +5985,7 @@
         <v>What a Girl Wants obtuvo una certificación de oro en EE. UU.</v>
       </c>
       <c r="D399" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="400">
@@ -5999,7 +5999,7 @@
         <v>Megan Fox trabajó con Faith Ford.</v>
       </c>
       <c r="D400" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="401">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -6027,7 +6027,7 @@
         <v>El Club de la Pelea está protagonizado por Brad Pitt.</v>
       </c>
       <c r="D402" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="403">
@@ -6041,7 +6041,7 @@
         <v>Todo el mundo necesita un mejor amigo es de un video de YouTube.</v>
       </c>
       <c r="D403" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="404">
@@ -6055,7 +6055,7 @@
         <v>El Doctor Who viaja solo.</v>
       </c>
       <c r="D404" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="405">
@@ -6069,7 +6069,7 @@
         <v>Helen Hunt estuvo en 5 películas donde Helen Hunt comió una hamburguesa.</v>
       </c>
       <c r="D405" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="406">
@@ -6083,7 +6083,7 @@
         <v>Jeff Bezos es el fundador de Facebook.</v>
       </c>
       <c r="D406" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="407">
@@ -6097,7 +6097,7 @@
         <v>El álbum de Tina Turner, Break Every Rule, obtuvo el disco de oro.</v>
       </c>
       <c r="D407" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="408">
@@ -6111,7 +6111,7 @@
         <v>Doc Holliday nunca estableció su consulta en Atlanta.</v>
       </c>
       <c r="D408" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="409">
@@ -6125,7 +6125,7 @@
         <v>La psicología es una disciplina dentro de la academia.</v>
       </c>
       <c r="D409" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="410">
@@ -6139,7 +6139,7 @@
         <v>Narendra Modi es un político indio.</v>
       </c>
       <c r="D410" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="411">
@@ -6153,7 +6153,7 @@
         <v>Doctor Who ha sido interpretado por múltiples actores.</v>
       </c>
       <c r="D411" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="412">
@@ -6167,7 +6167,7 @@
         <v>Kaplan quiere llevar a cabo su visión.</v>
       </c>
       <c r="D412" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="413">
@@ -6181,7 +6181,7 @@
         <v>Se le entregó un informe con lo que quería que se mostrara anualmente.</v>
       </c>
       <c r="D413" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="414">
@@ -6195,7 +6195,7 @@
         <v>Estas leyes kosher han permitido que los animales protegidos prosperen.</v>
       </c>
       <c r="D414" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="415">
@@ -6209,7 +6209,7 @@
         <v>Abbe Lowell planea intentar capitalizar la interrogación de Starr.</v>
       </c>
       <c r="D415" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="416">
@@ -6223,7 +6223,7 @@
         <v>La prensa necesita ser reestructurada para eliminar cualquier fuga.</v>
       </c>
       <c r="D416" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="417">
@@ -6237,7 +6237,7 @@
         <v>Klayman quiere que los demás crean que es coherente.</v>
       </c>
       <c r="D417" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="418">
@@ -6251,7 +6251,7 @@
         <v>El mundo funcionará con buena orientación en macroeconomía.</v>
       </c>
       <c r="D418" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="419">
@@ -6265,7 +6265,7 @@
         <v>Joyce no puede encontrar la pieza que está buscando.</v>
       </c>
       <c r="D419" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="420">
@@ -6279,7 +6279,7 @@
         <v>El autor hizo la pregunta vaga a propósito.</v>
       </c>
       <c r="D420" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="421">
@@ -6293,7 +6293,7 @@
         <v>La mujer no tiene un último deseo.</v>
       </c>
       <c r="D421" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="422">
@@ -6307,7 +6307,7 @@
         <v>A pesar de algunas grandes expectativas en su prometedor inicio, la marca ha estado en un constante declive.</v>
       </c>
       <c r="D422" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="423">
@@ -6321,7 +6321,7 @@
         <v>Todos los basset hounds tienen buen sentido.</v>
       </c>
       <c r="D423" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="424">
@@ -6335,7 +6335,7 @@
         <v>Me gustan todos los coches Mazda.</v>
       </c>
       <c r="D424" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="425">
@@ -6349,7 +6349,7 @@
         <v>Necesitan ser escuchados.</v>
       </c>
       <c r="D425" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="426">
@@ -6363,7 +6363,7 @@
         <v>Necesitaban saber el nombre del hombre.</v>
       </c>
       <c r="D426" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="427">
@@ -6377,7 +6377,7 @@
         <v>La declaración de Greenspan necesitaba ser reformulada.</v>
       </c>
       <c r="D427" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="428">
@@ -6391,7 +6391,7 @@
         <v>El autor quería que Reagan recibiera críticas.</v>
       </c>
       <c r="D428" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="429">
@@ -6405,7 +6405,7 @@
         <v>La mujer está soltera.</v>
       </c>
       <c r="D429" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="430">
@@ -6419,7 +6419,7 @@
         <v>Katz desea desesperadamente ser publicado por el Washington Post.</v>
       </c>
       <c r="D430" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="431">
@@ -6433,7 +6433,7 @@
         <v>Microsoft es un jugador poderoso en su mercado, con la capacidad de neutralizar problemas.</v>
       </c>
       <c r="D431" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="432">
@@ -6447,7 +6447,7 @@
         <v>Springer no es popular.</v>
       </c>
       <c r="D432" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="433">
@@ -6461,7 +6461,7 @@
         <v>Todos deberían ocuparse de sus propios asuntos en lo que respecta a su vida amorosa.</v>
       </c>
       <c r="D433" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="434">
@@ -6475,7 +6475,7 @@
         <v>Inglis construyó un largo tramo de carretera.</v>
       </c>
       <c r="D434" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="435">
@@ -6489,7 +6489,7 @@
         <v>Todavía hay quienes quieren dar regalos.</v>
       </c>
       <c r="D435" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="436">
@@ -6503,7 +6503,7 @@
         <v>Los soldados querían ayudarla.</v>
       </c>
       <c r="D436" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="437">
@@ -6517,7 +6517,7 @@
         <v>McCain quiere aumentar los impuestos para todos.</v>
       </c>
       <c r="D437" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="438">
@@ -6531,7 +6531,7 @@
         <v>La protagonista y sus hermanos crecen en Japón.</v>
       </c>
       <c r="D438" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="439">
@@ -6545,7 +6545,7 @@
         <v>El liberado condicional siempre ha seguido la ley.</v>
       </c>
       <c r="D439" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="440">
@@ -6559,7 +6559,7 @@
         <v>Jesse Ventura no quiere que Pat gane la nominación.</v>
       </c>
       <c r="D440" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="441">
@@ -6573,7 +6573,7 @@
         <v>La nueva tecnología lanza noticias de última hora en un periódico.</v>
       </c>
       <c r="D441" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="442">
@@ -6587,7 +6587,7 @@
         <v>Es una cantidad pequeña, en comparación con lo que se necesita.</v>
       </c>
       <c r="D442" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="443">
@@ -6601,7 +6601,7 @@
         <v>El gremio de los kirkbuzzers necesita dinero de él.</v>
       </c>
       <c r="D443" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="444">
@@ -6615,7 +6615,7 @@
         <v>Los republicanos a menudo buscan devolver a sus electores pobres cuando hay un déficit presupuestario.</v>
       </c>
       <c r="D444" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="445">
@@ -6629,7 +6629,7 @@
         <v>PointCast está tratando de crear su primer producto de software como empresa.</v>
       </c>
       <c r="D445" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="446">
@@ -6643,7 +6643,7 @@
         <v>Bettelheim se centró en la importancia de ser un guía.</v>
       </c>
       <c r="D446" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="447">
@@ -6657,7 +6657,7 @@
         <v>Los críticos que están frenéticos por salvar la novela hoy querían matarla hace 40 años.</v>
       </c>
       <c r="D447" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="448">
@@ -6671,7 +6671,7 @@
         <v>La carrera de Pollock fue corta.</v>
       </c>
       <c r="D448" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="449">
@@ -6699,7 +6699,7 @@
         <v>Recortar los sistemas de pago social genera tensión para los líderes nacionales.</v>
       </c>
       <c r="D450" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="451">
@@ -6713,7 +6713,7 @@
         <v>Los gobiernos europeos imponen altos impuestos a los servicios de devolución de llamada.</v>
       </c>
       <c r="D451" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="452">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -6727,7 +6727,7 @@
         <v>El gobierno federal sabe que el dinero para desastres es muy codiciado.</v>
       </c>
       <c r="D452" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="453">
@@ -6741,7 +6741,7 @@
         <v>Estoy completamente feliz con cómo va.</v>
       </c>
       <c r="D453" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="454">
@@ -6755,7 +6755,7 @@
         <v>Algunos quieren renunciar a los fiscales especiales.</v>
       </c>
       <c r="D454" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="455">
@@ -6769,7 +6769,7 @@
         <v>Quiero encontrar el Fuego de Gabriel; es mi favorito.</v>
       </c>
       <c r="D455" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="456">
@@ -6783,7 +6783,7 @@
         <v>La LSC tenía dudas sobre la efectividad de la orientación propuesta.</v>
       </c>
       <c r="D456" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="457">
@@ -6797,7 +6797,7 @@
         <v>Tommy realmente quería saber.</v>
       </c>
       <c r="D457" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="458">
@@ -6811,7 +6811,7 @@
         <v>Esta revisión intentará refutar la razón para intervenir.</v>
       </c>
       <c r="D458" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="459">
@@ -6825,7 +6825,7 @@
         <v>Es imposible saber si la legislación es efectiva.</v>
       </c>
       <c r="D459" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="460">
@@ -6839,7 +6839,7 @@
         <v>Mirar lo que contenían las latas le dio ganas de vomitar.</v>
       </c>
       <c r="D460" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="461">
@@ -6853,7 +6853,7 @@
         <v>Ella estaba nerviosa a pesar de que no quería estarlo.</v>
       </c>
       <c r="D461" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="462">
@@ -6867,7 +6867,7 @@
         <v>Mi hijo realmente quiere tener un perro.</v>
       </c>
       <c r="D462" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="463">
@@ -6881,7 +6881,7 @@
         <v>Las demandas de capacitación y supervisión aumentan con múltiples sitios.</v>
       </c>
       <c r="D463" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="464">
@@ -6895,7 +6895,7 @@
         <v>Aunque le gustaba su entorno en general, quería irse pronto para evitar los torrentes de otoño.</v>
       </c>
       <c r="D464" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="465">
@@ -6909,7 +6909,7 @@
         <v>Spock intentó engañar a su esposa.</v>
       </c>
       <c r="D465" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="466">
@@ -6923,7 +6923,7 @@
         <v>El precio necesitaba ser limitado.</v>
       </c>
       <c r="D466" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="467">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -6867,7 +6867,7 @@
         <v>Mi hijo realmente quiere tener un perro.</v>
       </c>
       <c r="D462" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="463">
@@ -6881,7 +6881,7 @@
         <v>Las demandas de capacitación y supervisión aumentan con múltiples sitios.</v>
       </c>
       <c r="D463" t="str">
-        <v>Contradiction</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="464">
@@ -6937,7 +6937,7 @@
         <v>Mi esposo está feliz de dejarme encargarme de las flores, mientras él mantiene el césped justo como le gusta.</v>
       </c>
       <c r="D467" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="468">
@@ -6951,7 +6951,7 @@
         <v>Realmente han hecho un lío de nuestra reunión familiar.</v>
       </c>
       <c r="D468" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="469">
@@ -6965,7 +6965,7 @@
         <v>Quería comprar una casa con una terraza, pero decidí conseguir una sin ella.</v>
       </c>
       <c r="D469" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="470">
@@ -6979,7 +6979,7 @@
         <v>El Partido quiere que se vaya lo antes posible.</v>
       </c>
       <c r="D470" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="471">
@@ -6993,7 +6993,7 @@
         <v>Decidí que no necesitaba comer.</v>
       </c>
       <c r="D471" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="472">
@@ -7007,7 +7007,7 @@
         <v>Vrenna quiere saber si el Kal va.</v>
       </c>
       <c r="D472" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="473">
@@ -7021,7 +7021,7 @@
         <v>No había agentes dispuestos a mentir por Clinton en ningún caso.</v>
       </c>
       <c r="D473" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="474">
@@ -7035,7 +7035,7 @@
         <v>Queríamos enviarle dinero a Lewinsky.</v>
       </c>
       <c r="D474" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="475">
@@ -7049,7 +7049,7 @@
         <v>Las necesidades funcionales y de defensa siempre están en sintonía.</v>
       </c>
       <c r="D475" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="476">
@@ -7063,7 +7063,7 @@
         <v>Drew no quería atropellar a Shannon.</v>
       </c>
       <c r="D476" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="477">
@@ -7077,7 +7077,7 @@
         <v>Realmente facilitan el proceso de reunión familiar.</v>
       </c>
       <c r="D477" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="478">
@@ -7091,7 +7091,7 @@
         <v>Espero verlo algún día.</v>
       </c>
       <c r="D478" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="479">
@@ -7105,7 +7105,7 @@
         <v>Durante este tiempo, los Bush no querían tener nada que ver conmigo.</v>
       </c>
       <c r="D479" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="480">
@@ -7119,7 +7119,7 @@
         <v>Necesitamos recordar algunas ideas.</v>
       </c>
       <c r="D480" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="481">
@@ -7133,7 +7133,7 @@
         <v>El astrónomo estaba desconcertado por la pregunta de por qué las personas querrían carbón y petróleo a pesar de haber estado en el espacio y pidió razones para la confusión.</v>
       </c>
       <c r="D481" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="482">
@@ -7147,7 +7147,7 @@
         <v>La GAO y los IGs necesitan tener relaciones sólidas.</v>
       </c>
       <c r="D482" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="483">
@@ -7161,7 +7161,7 @@
         <v>Gracias por tu persistencia en recordarme cada vez que he intentado ser emocional.</v>
       </c>
       <c r="D483" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="484">
@@ -7175,7 +7175,7 @@
         <v>Queremos niños.</v>
       </c>
       <c r="D484" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="485">
@@ -7189,7 +7189,7 @@
         <v>Tuvimos el deseo de crear un poco de esperanza a través del logo de HRC.</v>
       </c>
       <c r="D485" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="486">
@@ -7203,7 +7203,7 @@
         <v>Completamente pavimenté mi entrada de autos la primavera siguiente.</v>
       </c>
       <c r="D486" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="487">
@@ -7217,7 +7217,7 @@
         <v>Jackson necesita ayuda.</v>
       </c>
       <c r="D487" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="488">
@@ -7231,7 +7231,7 @@
         <v>La segunda etapa fue planificada a finales del siglo XVII.</v>
       </c>
       <c r="D488" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="489">
@@ -7245,7 +7245,7 @@
         <v>Necesitaba irme.</v>
       </c>
       <c r="D489" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="490">
@@ -7259,7 +7259,7 @@
         <v>El artículo de la revista es donde lo leí.</v>
       </c>
       <c r="D490" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="491">
@@ -7273,7 +7273,7 @@
         <v>Gilder no necesita ninguna excusa para escribir redacción técnica.</v>
       </c>
       <c r="D491" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="492">
@@ -7287,7 +7287,7 @@
         <v>Los buenos líderes pueden ayudar a una organización a superar su resistencia al cambio.</v>
       </c>
       <c r="D492" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="493">
@@ -7301,7 +7301,7 @@
         <v>Necesita ser dado cuerda constantemente y es preciso dentro de cinco minutos.</v>
       </c>
       <c r="D493" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="494">
@@ -7315,7 +7315,7 @@
         <v>Sabían el poder de estar informados.</v>
       </c>
       <c r="D494" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="495">
@@ -7329,7 +7329,7 @@
         <v>Fue difícil encontrar dónde está su oficina.</v>
       </c>
       <c r="D495" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="496">
@@ -7343,7 +7343,7 @@
         <v>Creo que quiero ser él.</v>
       </c>
       <c r="D496" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="497">
@@ -7357,7 +7357,7 @@
         <v>Él necesita el tiempo.</v>
       </c>
       <c r="D497" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="498">
@@ -7371,7 +7371,7 @@
         <v>Los residentes querían recibir su correo a las 8:00 a.m.</v>
       </c>
       <c r="D498" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="499">
@@ -7385,7 +7385,7 @@
         <v>Debido a que eran hindúes, el Partido del Congreso de Nehru estaba liderado por socialistas.</v>
       </c>
       <c r="D499" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="500">
@@ -7399,7 +7399,7 @@
         <v>Cynthia era alérgica al pasto y no lo tocaba.</v>
       </c>
       <c r="D500" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="501">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -6853,7 +6853,7 @@
         <v>Ella estaba nerviosa a pesar de que no quería estarlo.</v>
       </c>
       <c r="D461" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="462">
@@ -7063,7 +7063,7 @@
         <v>Drew no quería atropellar a Shannon.</v>
       </c>
       <c r="D476" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="477">
@@ -7147,7 +7147,7 @@
         <v>La GAO y los IGs necesitan tener relaciones sólidas.</v>
       </c>
       <c r="D482" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="483">
@@ -7273,7 +7273,7 @@
         <v>Gilder no necesita ninguna excusa para escribir redacción técnica.</v>
       </c>
       <c r="D491" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="492">
@@ -7343,7 +7343,7 @@
         <v>Creo que quiero ser él.</v>
       </c>
       <c r="D496" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="497">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -7413,7 +7413,7 @@
         <v>Bombear países disminuye tu índice de aprobación.</v>
       </c>
       <c r="D501" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="502">
@@ -7427,7 +7427,7 @@
         <v>Fridlund-Hume advirtió sobre el peligro de esforzarse demasiado por parecer correcto.</v>
       </c>
       <c r="D502" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="503">
@@ -7441,7 +7441,7 @@
         <v>En la Unión Soviética, hay muchas culturas diferentes tratando de funcionar en un solo país.</v>
       </c>
       <c r="D503" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="504">
@@ -7455,7 +7455,7 @@
         <v>Lamentablemente, no puedo vestirme como quiera mientras trabajo desde casa.</v>
       </c>
       <c r="D504" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="505">
@@ -7469,7 +7469,7 @@
         <v>Quiero que seas libre de tomar las decisiones que desees.</v>
       </c>
       <c r="D505" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="506">
@@ -7483,7 +7483,7 @@
         <v>Sin embargo, debes mantener un registro de las principales calles adoquinadas.</v>
       </c>
       <c r="D506" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="507">
@@ -7497,7 +7497,7 @@
         <v>Sé que Panamá se toma muy en serio el tema de las drogas.</v>
       </c>
       <c r="D507" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="508">
@@ -7511,7 +7511,7 @@
         <v>El cuestionario incluido se puede utilizar para diagnosticar problemas médicos.</v>
       </c>
       <c r="D508" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="509">
@@ -7525,7 +7525,7 @@
         <v>quiero estar involucrado en la emoción</v>
       </c>
       <c r="D509" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="510">
@@ -7539,7 +7539,7 @@
         <v>El presidente quiere mantener la fortaleza de la misión.</v>
       </c>
       <c r="D510" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="511">
@@ -7553,7 +7553,7 @@
         <v>Berman navega a través del océano en un viaje espiritual.</v>
       </c>
       <c r="D511" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="512">
@@ -7567,7 +7567,7 @@
         <v>Quiero decirle que no diga eso.</v>
       </c>
       <c r="D512" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="513">
@@ -7581,7 +7581,7 @@
         <v>Voy a obligar a Emily a ser como yo quiero que sea.</v>
       </c>
       <c r="D513" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="514">
@@ -7595,7 +7595,7 @@
         <v>Los defensores del derecho a decidir en los años 70 no querían asociarse con el emergente movimiento feminista.</v>
       </c>
       <c r="D514" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="515">
@@ -7609,7 +7609,7 @@
         <v>Está claro que no necesita usar un método para tener éxito.</v>
       </c>
       <c r="D515" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="516">
@@ -7623,7 +7623,7 @@
         <v>Necesitas binoculares para tener una buena vista del tercer nivel de arcos.</v>
       </c>
       <c r="D516" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="517">
@@ -7637,7 +7637,7 @@
         <v>¿Solo deseas que él cometiera ese crimen?</v>
       </c>
       <c r="D517" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="518">
@@ -7651,7 +7651,7 @@
         <v>"No deseo vender comida a aquellos incapaces de apreciar su verdadera y placentera naturaleza," respondió.</v>
       </c>
       <c r="D518" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="519">
@@ -7665,7 +7665,7 @@
         <v>La reconstrucción de Tokio fue mal planificada.</v>
       </c>
       <c r="D519" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="520">
@@ -7679,7 +7679,7 @@
         <v>Querían que plantara las rosas junto a su entrada.</v>
       </c>
       <c r="D520" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="521">
@@ -7693,7 +7693,7 @@
         <v>La primera función del sitio web te redirige a la página de inicio.</v>
       </c>
       <c r="D521" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="522">
@@ -7707,7 +7707,7 @@
         <v>Ryerson piensa que se necesitan leyes más estrictas para la protección del medio ambiente.</v>
       </c>
       <c r="D522" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="523">
@@ -7721,7 +7721,7 @@
         <v>Quería que los adolescentes en pobreza utilizaran medidas para evitar que tuvieran hijos.</v>
       </c>
       <c r="D523" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="524">
@@ -7735,7 +7735,7 @@
         <v>Estoy en medio de las ofertas porque quiero que pinten mi casa.</v>
       </c>
       <c r="D524" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="525">
@@ -7749,7 +7749,7 @@
         <v>Necesitaban un ingreso extra.</v>
       </c>
       <c r="D525" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="526">
@@ -7763,7 +7763,7 @@
         <v>Hago lo que quiero.</v>
       </c>
       <c r="D526" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="527">
@@ -7777,7 +7777,7 @@
         <v>Sé que tu nombre es Antonio, no es necesario que te repitas.</v>
       </c>
       <c r="D527" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="528">
@@ -7791,7 +7791,7 @@
         <v>Donovan Olson fue nombrado presidente de la Junta de Supervisores del condado el pasado diciembre.</v>
       </c>
       <c r="D528" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="529">
@@ -7805,7 +7805,7 @@
         <v>Deseo ver al verdadero Sr. Brown.</v>
       </c>
       <c r="D529" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="530">
@@ -7819,7 +7819,7 @@
         <v>Las temperaturas estarán bajando.</v>
       </c>
       <c r="D530" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="531">
@@ -7833,7 +7833,7 @@
         <v>Fieldstone quiere encontrar una solución viable para el problema de la ejecución hipotecaria.</v>
       </c>
       <c r="D531" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="532">
@@ -7847,7 +7847,7 @@
         <v>Necesitábamos redecorar varias habitaciones de la casa.</v>
       </c>
       <c r="D532" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="533">
@@ -7861,7 +7861,7 @@
         <v>Tengo más experiencia con PCs, así que asumí la mayor parte de la carga.</v>
       </c>
       <c r="D533" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="534">
@@ -7875,7 +7875,7 @@
         <v>El esposo le dio las llaves para aparcar el Orshe.</v>
       </c>
       <c r="D534" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="535">
@@ -7889,7 +7889,7 @@
         <v>Puedo posponer estas tareas hasta después de clase.</v>
       </c>
       <c r="D535" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="536">
@@ -7903,7 +7903,7 @@
         <v>No se crearán regiones comerciales del norte y del sur.</v>
       </c>
       <c r="D536" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="537">
@@ -7917,7 +7917,7 @@
         <v>El Hotel Maxim necesita ser renovado.</v>
       </c>
       <c r="D537" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="538">
@@ -7931,7 +7931,7 @@
         <v>OPEP está preocupada por la economía.</v>
       </c>
       <c r="D538" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="539">
@@ -7945,7 +7945,7 @@
         <v>El Senado nunca avanzará con este proyecto de ley.</v>
       </c>
       <c r="D539" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="540">
@@ -7959,7 +7959,7 @@
         <v>El objetivo de la administración es crear nuevos productos y servicios que satisfagan las necesidades de los consumidores.</v>
       </c>
       <c r="D540" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="541">
@@ -7973,7 +7973,7 @@
         <v>Quieren argumentar la importancia de la guerra contra el terrorismo.</v>
       </c>
       <c r="D541" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="542">
@@ -7987,7 +7987,7 @@
         <v>Ni siquiera quiero una dama de honor.</v>
       </c>
       <c r="D542" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="543">
@@ -8001,7 +8001,7 @@
         <v>Las consecuencias económicas de esta guerra son enormes.</v>
       </c>
       <c r="D543" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="544">
@@ -8015,7 +8015,7 @@
         <v>Ella no quería ir a América, pero tenía miedo de quedarse en su país.</v>
       </c>
       <c r="D544" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="545">
@@ -8029,7 +8029,7 @@
         <v>Tratas de averiguar qué hacer.</v>
       </c>
       <c r="D545" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="546">
@@ -8043,7 +8043,7 @@
         <v>El precio de la libertad es la libertad de hacer lo que quieras.</v>
       </c>
       <c r="D546" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="547">
@@ -8057,7 +8057,7 @@
         <v>Puedes hacer lo que quieras.</v>
       </c>
       <c r="D547" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="548">
@@ -8071,7 +8071,7 @@
         <v>Quería obtener la información.</v>
       </c>
       <c r="D548" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="549">
@@ -8085,7 +8085,7 @@
         <v>Es una buena idea conseguir que la junta escolar nos ayude.</v>
       </c>
       <c r="D549" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="550">
@@ -8099,7 +8099,7 @@
         <v>La conversación trataba sobre el tema del interés del reportero.</v>
       </c>
       <c r="D550" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="551">
@@ -8113,7 +8113,7 @@
         <v>La novela trata sobre una mujer que no es deseada en su propio hogar.</v>
       </c>
       <c r="D551" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="552">
@@ -8127,7 +8127,7 @@
         <v>La escuela está construyendo un nuevo auditorio.</v>
       </c>
       <c r="D552" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="553">
@@ -8141,7 +8141,7 @@
         <v>La víctima no quiere denunciar el crimen.</v>
       </c>
       <c r="D553" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="554">
@@ -8155,7 +8155,7 @@
         <v>El gobierno quiere crear un sistema de atención médica.</v>
       </c>
       <c r="D554" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="555">
@@ -8169,7 +8169,7 @@
         <v>¿Sabemos cómo darles medicamentos a nuestros hijos?</v>
       </c>
       <c r="D555" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="556">
@@ -8183,7 +8183,7 @@
         <v>Tuvieron la oportunidad de hacer lo que quisieran.</v>
       </c>
       <c r="D556" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="557">
@@ -8197,7 +8197,7 @@
         <v>Los abogados tienen una gran oportunidad de ayudar a los pobres.</v>
       </c>
       <c r="D557" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="558">
@@ -8211,7 +8211,7 @@
         <v>La Ley de Política Energética Federal de 1992 fue derogada en 2005.</v>
       </c>
       <c r="D558" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="559">
@@ -8225,7 +8225,7 @@
         <v>Estás aquí.</v>
       </c>
       <c r="D559" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="560">
@@ -8239,7 +8239,7 @@
         <v>Los servicios minoristas necesitan contratos.</v>
       </c>
       <c r="D560" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="561">
@@ -8253,7 +8253,7 @@
         <v>Nolte dijo que nunca quiso ser abogado.</v>
       </c>
       <c r="D561" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="562">
@@ -8267,7 +8267,7 @@
         <v>El estado está en venta.</v>
       </c>
       <c r="D562" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="563">
@@ -8281,7 +8281,7 @@
         <v>Los científicos quieren saber qué están haciendo los responsables de políticas.</v>
       </c>
       <c r="D563" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="564">
@@ -8295,7 +8295,7 @@
         <v>Los interesados pueden participar en el proceso de planificación.</v>
       </c>
       <c r="D564" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="565">
@@ -8309,7 +8309,7 @@
         <v>El cambio en su estado de ánimo se debió a sus amigos.</v>
       </c>
       <c r="D565" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="566">
@@ -8323,7 +8323,7 @@
         <v>Hay una cantidad significativa de desacuerdo entre los partidos políticos sobre la necesidad de un sistema de salud de pagador único.</v>
       </c>
       <c r="D566" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="567">
@@ -8337,7 +8337,7 @@
         <v>Tienes un problema real.</v>
       </c>
       <c r="D567" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="568">
@@ -8351,7 +8351,7 @@
         <v>Juega con una ruleta que tiene 0 y 00.</v>
       </c>
       <c r="D568" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="569">
@@ -8365,7 +8365,7 @@
         <v>No puedo decirte lo que hice.</v>
       </c>
       <c r="D569" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="570">
@@ -8379,7 +8379,7 @@
         <v>La mujer no sabe lo que quiere.</v>
       </c>
       <c r="D570" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="571">
@@ -8393,7 +8393,7 @@
         <v>Él siempre quiere tener razón.</v>
       </c>
       <c r="D571" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="572">
@@ -8407,7 +8407,7 @@
         <v>El nuevo programa es necesario para resolver el problema.</v>
       </c>
       <c r="D572" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="573">
@@ -8421,7 +8421,7 @@
         <v>¿Quieres quedarte?</v>
       </c>
       <c r="D573" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="574">
@@ -8435,7 +8435,7 @@
         <v>Se necesita poder policial para hacer que las leyes funcionen.</v>
       </c>
       <c r="D574" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="575">
@@ -8449,7 +8449,7 @@
         <v>El gobierno no ha hecho lo que la gente quería.</v>
       </c>
       <c r="D575" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="576">
@@ -8463,7 +8463,7 @@
         <v>El área atraerá a personas que quieran venir a ella.</v>
       </c>
       <c r="D576" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="577">
@@ -8477,7 +8477,7 @@
         <v>Él está tratando de ser rico.</v>
       </c>
       <c r="D577" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="578">
@@ -8491,7 +8491,7 @@
         <v>Él no iba a empezar una guerra.</v>
       </c>
       <c r="D578" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="579">
@@ -8505,7 +8505,7 @@
         <v>Al Dr. Livingston no le gustaba él.</v>
       </c>
       <c r="D579" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="580">
@@ -8519,7 +8519,7 @@
         <v>Hay una necesidad de una nueva iniciativa.</v>
       </c>
       <c r="D580" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="581">
@@ -8533,7 +8533,7 @@
         <v>Necesitas conocer los nombres de los jugadores.</v>
       </c>
       <c r="D581" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="582">
@@ -8547,7 +8547,7 @@
         <v>La gente necesita recibir una buena educación.</v>
       </c>
       <c r="D582" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="583">
@@ -8561,7 +8561,7 @@
         <v>Necesitamos considerar los costos de otros componentes del sistema.</v>
       </c>
       <c r="D583" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="584">
@@ -8575,7 +8575,7 @@
         <v>Él ha tomado una decisión sobre lo que quiere hacer.</v>
       </c>
       <c r="D584" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="585">
@@ -8589,7 +8589,7 @@
         <v>El gobierno necesita hacer algo sobre la economía.</v>
       </c>
       <c r="D585" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="586">
@@ -8603,7 +8603,7 @@
         <v>Él es una persona muy moral.</v>
       </c>
       <c r="D586" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="587">
@@ -8617,7 +8617,7 @@
         <v>Quiero estar a cargo de las operaciones.</v>
       </c>
       <c r="D587" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="588">
@@ -8631,7 +8631,7 @@
         <v>El gobierno de EE. UU. quiere permitir que la información fluya libremente.</v>
       </c>
       <c r="D588" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="589">
@@ -8645,7 +8645,7 @@
         <v>No necesitas un permiso para ir al lago.</v>
       </c>
       <c r="D589" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="590">
@@ -8659,7 +8659,7 @@
         <v>Hay una necesidad de una revisión exhaustiva de la literatura sobre el tema.</v>
       </c>
       <c r="D590" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="591">
@@ -8673,7 +8673,7 @@
         <v>No quiero ir.</v>
       </c>
       <c r="D591" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="592">
@@ -8687,7 +8687,7 @@
         <v>Diversificar el suministro de energía es importante para la seguridad energética.</v>
       </c>
       <c r="D592" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="593">
@@ -8701,7 +8701,7 @@
         <v>La señorita Paget quería decir que John era afortunado.</v>
       </c>
       <c r="D593" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="594">
@@ -8715,7 +8715,7 @@
         <v>El presidente de la junta escolar local está en una posición para hacer lo que quiere hacer.</v>
       </c>
       <c r="D594" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="595">
@@ -8729,7 +8729,7 @@
         <v>Debe haber una discusión.</v>
       </c>
       <c r="D595" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="596">
@@ -8743,7 +8743,7 @@
         <v>Los Dothraki quieren invadir la ciudad de Qarth.</v>
       </c>
       <c r="D596" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="597">
@@ -8757,7 +8757,7 @@
         <v>Hay algo que se debe hacer al respecto.</v>
       </c>
       <c r="D597" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="598">
@@ -8771,7 +8771,7 @@
         <v>El nuevo equipo está comprometido con lo que el entrenador está tratando de hacer.</v>
       </c>
       <c r="D598" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="599">
@@ -8785,7 +8785,7 @@
         <v>Era más abierto con ella cuando no estaba tan nervioso.</v>
       </c>
       <c r="D599" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="600">
@@ -8799,7 +8799,7 @@
         <v>Se necesita un cambio en la organización.</v>
       </c>
       <c r="D600" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="601">
@@ -8813,7 +8813,7 @@
         <v>La prueba no es confiable.</v>
       </c>
       <c r="D601" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="602">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -7735,7 +7735,7 @@
         <v>Estoy en medio de las ofertas porque quiero que pinten mi casa.</v>
       </c>
       <c r="D524" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="525">
@@ -8421,7 +8421,7 @@
         <v>¿Quieres quedarte?</v>
       </c>
       <c r="D573" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="574">
@@ -8645,7 +8645,7 @@
         <v>No necesitas un permiso para ir al lago.</v>
       </c>
       <c r="D589" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="590">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -8827,7 +8827,7 @@
         <v>Dos canadienses franceses más vinieron arrastrándose desde la casa de pescado de Murray.</v>
       </c>
       <c r="D602" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="603">
@@ -8841,7 +8841,7 @@
         <v>Besarse en público requiere el consentimiento de una figura parental.</v>
       </c>
       <c r="D603" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="604">
@@ -8855,7 +8855,7 @@
         <v>Andrea von Habsburg es la hija mayor de su familia.</v>
       </c>
       <c r="D604" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="605">
@@ -8869,7 +8869,7 @@
         <v>El National Park Trust ha puesto a la venta terrenos en más de 20 sitios de alta prioridad.</v>
       </c>
       <c r="D605" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="606">
@@ -8883,7 +8883,7 @@
         <v>Los terrarios deben estar hechos de plástico o vidrio.</v>
       </c>
       <c r="D606" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="607">
@@ -8897,7 +8897,7 @@
         <v>El material hecho para detener la erosión en una orilla de río no es biodegradable.</v>
       </c>
       <c r="D607" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="608">
@@ -8911,7 +8911,7 @@
         <v>Donald Conroy murió a los 67 años.</v>
       </c>
       <c r="D608" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="609">
@@ -8925,7 +8925,7 @@
         <v>Además de compilar música con la banda estadounidense de rock alternativo 10,000 Maniacs, Mary Ramsey debe ser considerada como miembro del dúo de folk rock John &amp; Mary.</v>
       </c>
       <c r="D609" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="610">
@@ -8939,7 +8939,7 @@
         <v>Este pasaje está completado.</v>
       </c>
       <c r="D610" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="611">
@@ -8953,7 +8953,7 @@
         <v>Un valdez requiere que te sientes erguido.</v>
       </c>
       <c r="D611" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="612">
@@ -8967,7 +8967,7 @@
         <v>El orador está en su segundo mandato.</v>
       </c>
       <c r="D612" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="613">
@@ -8981,7 +8981,7 @@
         <v>Janet es un tío.</v>
       </c>
       <c r="D613" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="614">
@@ -8995,7 +8995,7 @@
         <v>El gobernador del estado de Abia también es el presidente.</v>
       </c>
       <c r="D614" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="615">
@@ -9009,7 +9009,7 @@
         <v>Walter Murray dijo que fue un ataque tonto.</v>
       </c>
       <c r="D615" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="616">
@@ -9023,7 +9023,7 @@
         <v>El seguro marítimo ilimitado no está disponible para individuos, solo para embarcaciones comerciales.</v>
       </c>
       <c r="D616" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="617">
@@ -9037,7 +9037,7 @@
         <v>Constance no mostraba interés en la conversación ni en el tema.</v>
       </c>
       <c r="D617" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="618">
@@ -9051,7 +9051,7 @@
         <v>Los que sufren de SII solo deben beber agua.</v>
       </c>
       <c r="D618" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="619">
@@ -9065,7 +9065,7 @@
         <v>New Day es un libro de 1949 del autor jamaicano V. S. Reid. Tiene más de 46 años.</v>
       </c>
       <c r="D619" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="620">
@@ -9079,7 +9079,7 @@
         <v>El voto para el tratado es entre 25 y 30 años.</v>
       </c>
       <c r="D620" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="621">
@@ -9093,7 +9093,7 @@
         <v>El álbum comienza con una D.</v>
       </c>
       <c r="D621" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="622">
@@ -9107,7 +9107,7 @@
         <v>Ed Eagan jugó en la lista activa.</v>
       </c>
       <c r="D622" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="623">
@@ -9121,7 +9121,7 @@
         <v>Canelo Álvarez vs. Julio César Chávez Jr. se llevó a cabo después de 2016.</v>
       </c>
       <c r="D623" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="624">
@@ -9135,7 +9135,7 @@
         <v>El producto para el cabello no es barato.</v>
       </c>
       <c r="D624" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="625">
@@ -9149,7 +9149,7 @@
         <v>Pearse murió de causas naturales.</v>
       </c>
       <c r="D625" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="626">
@@ -9163,7 +9163,7 @@
         <v>el cáncer de piel se correlaciona con la capa de ozono</v>
       </c>
       <c r="D626" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="627">
@@ -9177,7 +9177,7 @@
         <v>Las infecciones por rellenos dérmicos pueden ir acompañadas de inflamación.</v>
       </c>
       <c r="D627" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="628">
@@ -9191,7 +9191,7 @@
         <v>Big Data fue un proyecto creado por Joywave.</v>
       </c>
       <c r="D628" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="629">
@@ -9205,7 +9205,7 @@
         <v>Para tratar el dolor musculoesquelético quirúrgicamente, primero descansa los músculos.</v>
       </c>
       <c r="D629" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="630">
@@ -9233,7 +9233,7 @@
         <v>la cirugía es realizada por un cirujano</v>
       </c>
       <c r="D631" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="632">
@@ -9247,7 +9247,7 @@
         <v>La mayoría de las personas no han oído hablar de la canción Oh My.</v>
       </c>
       <c r="D632" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="633">
@@ -9261,7 +9261,7 @@
         <v>El juez Breyer es un editor.</v>
       </c>
       <c r="D633" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="634">
@@ -9275,7 +9275,7 @@
         <v>Municipio y comune significan lo mismo.</v>
       </c>
       <c r="D634" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="635">
@@ -9289,7 +9289,7 @@
         <v>Kate Moss ha lanzado su propia línea de productos para el cabello.</v>
       </c>
       <c r="D635" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="636">
@@ -9303,7 +9303,7 @@
         <v>La serie trataba sobre un músico de jazz retirado llamado Jackie Evans.</v>
       </c>
       <c r="D636" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="637">
@@ -9317,7 +9317,7 @@
         <v>William Thomas Harris fue un lanzador canadiense que bateaba a la izquierda para Duguayville.</v>
       </c>
       <c r="D637" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="638">
@@ -9331,7 +9331,7 @@
         <v>Se deben agregar chispas al pastel.</v>
       </c>
       <c r="D638" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="639">
@@ -9345,7 +9345,7 @@
         <v>El Blue Ridge Parkway está en Carolina del Norte y Virginia.</v>
       </c>
       <c r="D639" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="640">
@@ -9359,7 +9359,7 @@
         <v>La funeraria Gent es responsable de la muerte de John.</v>
       </c>
       <c r="D640" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="641">
@@ -9373,7 +9373,7 @@
         <v>La huelga causará retrasos en las entregas.</v>
       </c>
       <c r="D641" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="642">
@@ -9387,7 +9387,7 @@
         <v>El subcomité realizará 4 viajes en la primavera de 1999.</v>
       </c>
       <c r="D642" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="643">
@@ -9401,7 +9401,7 @@
         <v>Multiplica los denominadores.</v>
       </c>
       <c r="D643" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="644">
@@ -9415,7 +9415,7 @@
         <v>Alguien hará una historia sobre la vida de Donald Rickles.</v>
       </c>
       <c r="D644" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="645">
@@ -9429,7 +9429,7 @@
         <v>Adelphia no es el noveno proveedor de servicios de cable más grande en los Estados Unidos, con casi 5 millones de suscriptores.</v>
       </c>
       <c r="D645" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="646">
@@ -9443,7 +9443,7 @@
         <v>Suma los numeradores.</v>
       </c>
       <c r="D646" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="647">
@@ -9457,7 +9457,7 @@
         <v>Ilse von Glatz fue una defensora en la vida real.</v>
       </c>
       <c r="D647" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="648">
@@ -9471,7 +9471,7 @@
         <v>La decisión de McGillis dañó su reputación.</v>
       </c>
       <c r="D648" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="649">
@@ -9485,7 +9485,7 @@
         <v>Deberías usar lechuga romana para guisar.</v>
       </c>
       <c r="D649" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="650">
@@ -9499,7 +9499,7 @@
         <v>Dani ha ayudado a alguien a elegir de manera diferente al ser voluntario en la línea de prevención del suicidio.</v>
       </c>
       <c r="D650" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="651">
@@ -9513,7 +9513,7 @@
         <v>Los jugadores del juego de estrellas del fútbol americano universitario participan en el East-West Shrine Game.</v>
       </c>
       <c r="D651" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="652">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -8841,7 +8841,7 @@
         <v>Besarse en público requiere el consentimiento de una figura parental.</v>
       </c>
       <c r="D603" t="str">
-        <v>Neutral</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="604">
@@ -8925,7 +8925,7 @@
         <v>Además de compilar música con la banda estadounidense de rock alternativo 10,000 Maniacs, Mary Ramsey debe ser considerada como miembro del dúo de folk rock John &amp; Mary.</v>
       </c>
       <c r="D609" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="610">
@@ -8967,7 +8967,7 @@
         <v>El orador está en su segundo mandato.</v>
       </c>
       <c r="D612" t="str">
-        <v>Entailment</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="613">
@@ -9065,7 +9065,7 @@
         <v>New Day es un libro de 1949 del autor jamaicano V. S. Reid. Tiene más de 46 años.</v>
       </c>
       <c r="D619" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="620">
@@ -9079,7 +9079,7 @@
         <v>El voto para el tratado es entre 25 y 30 años.</v>
       </c>
       <c r="D620" t="str">
-        <v>Neutral</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="621">
@@ -9121,7 +9121,7 @@
         <v>Canelo Álvarez vs. Julio César Chávez Jr. se llevó a cabo después de 2016.</v>
       </c>
       <c r="D623" t="str">
-        <v>Contradiction</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="624">
@@ -9163,7 +9163,7 @@
         <v>el cáncer de piel se correlaciona con la capa de ozono</v>
       </c>
       <c r="D626" t="str">
-        <v>Contradiction</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="627">
@@ -9177,7 +9177,7 @@
         <v>Las infecciones por rellenos dérmicos pueden ir acompañadas de inflamación.</v>
       </c>
       <c r="D627" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="628">
@@ -9247,7 +9247,7 @@
         <v>La mayoría de las personas no han oído hablar de la canción Oh My.</v>
       </c>
       <c r="D632" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="633">
@@ -9303,7 +9303,7 @@
         <v>La serie trataba sobre un músico de jazz retirado llamado Jackie Evans.</v>
       </c>
       <c r="D636" t="str">
-        <v>Entailment</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="637">
@@ -9317,7 +9317,7 @@
         <v>William Thomas Harris fue un lanzador canadiense que bateaba a la izquierda para Duguayville.</v>
       </c>
       <c r="D637" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="638">
@@ -9373,7 +9373,7 @@
         <v>La huelga causará retrasos en las entregas.</v>
       </c>
       <c r="D641" t="str">
-        <v>Entailment</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="642">
@@ -9387,7 +9387,7 @@
         <v>El subcomité realizará 4 viajes en la primavera de 1999.</v>
       </c>
       <c r="D642" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="643">
@@ -9401,7 +9401,7 @@
         <v>Multiplica los denominadores.</v>
       </c>
       <c r="D643" t="str">
-        <v>Neutral</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="644">
@@ -9513,7 +9513,7 @@
         <v>Los jugadores del juego de estrellas del fútbol americano universitario participan en el East-West Shrine Game.</v>
       </c>
       <c r="D651" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="652">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -8869,7 +8869,7 @@
         <v>El National Park Trust ha puesto a la venta terrenos en más de 20 sitios de alta prioridad.</v>
       </c>
       <c r="D605" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="606">
@@ -9009,7 +9009,7 @@
         <v>Walter Murray dijo que fue un ataque tonto.</v>
       </c>
       <c r="D615" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="616">
@@ -9345,7 +9345,7 @@
         <v>El Blue Ridge Parkway está en Carolina del Norte y Virginia.</v>
       </c>
       <c r="D639" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="640">
@@ -9429,7 +9429,7 @@
         <v>Adelphia no es el noveno proveedor de servicios de cable más grande en los Estados Unidos, con casi 5 millones de suscriptores.</v>
       </c>
       <c r="D645" t="str">
-        <v>Contradiction</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="646">
@@ -9485,7 +9485,7 @@
         <v>Deberías usar lechuga romana para guisar.</v>
       </c>
       <c r="D649" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="650">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -1911,7 +1911,7 @@
         <v>La pareja está haciendo un video gay, nunca se habían conocido antes.</v>
       </c>
       <c r="D108" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="109">
@@ -2429,7 +2429,7 @@
         <v>Todos reciben ayuda de sus padres para la universidad.</v>
       </c>
       <c r="D145" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="146">
@@ -2471,7 +2471,7 @@
         <v>Si tienes suerte, no sucederá.</v>
       </c>
       <c r="D148" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="149">
@@ -9527,7 +9527,7 @@
         <v>Thomas Ryan tenía 52 años en 2008.</v>
       </c>
       <c r="D652" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="653">
@@ -9541,7 +9541,7 @@
         <v>Dani sabía lo difícil que podía ser.</v>
       </c>
       <c r="D653" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="654">
@@ -9555,7 +9555,7 @@
         <v>Las autoridades no llegaron a la conclusión de que se tratara de un asesinato.</v>
       </c>
       <c r="D654" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="655">
@@ -9569,7 +9569,7 @@
         <v>Henry murió 7 años después de inventar la máquina.</v>
       </c>
       <c r="D655" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="656">
@@ -9583,7 +9583,7 @@
         <v>Selma Diamond murió a los 60 años.</v>
       </c>
       <c r="D656" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="657">
@@ -9611,7 +9611,7 @@
         <v>Rusia escucha a América.</v>
       </c>
       <c r="D658" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="659">
@@ -9625,7 +9625,7 @@
         <v>Steven Chealander trabaja para la Junta Nacional de Seguridad en el Transporte.</v>
       </c>
       <c r="D659" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="660">
@@ -9639,7 +9639,7 @@
         <v>El juego de las estrellas se juega después de la temporada de fútbol americano universitario.</v>
       </c>
       <c r="D660" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="661">
@@ -9653,7 +9653,7 @@
         <v>El sistema educativo está profundamente defectuoso y ningún niño debería quedarse atrás.</v>
       </c>
       <c r="D661" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="662">
@@ -9667,7 +9667,7 @@
         <v>Los Baby Boomers son los culpables del aumento desmesurado de los precios de las casas.</v>
       </c>
       <c r="D662" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="663">
@@ -9681,7 +9681,7 @@
         <v>Hank se puso un empaste hace dos días.</v>
       </c>
       <c r="D663" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="664">
@@ -9695,7 +9695,7 @@
         <v>El equipo de Tampa eligió a Erickson en la cuarta ronda del proceso de selección de 1991.</v>
       </c>
       <c r="D664" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="665">
@@ -9709,7 +9709,7 @@
         <v>Witta, hijo de Wecta, le gusta escuchar laúd.</v>
       </c>
       <c r="D665" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="666">
@@ -9723,7 +9723,7 @@
         <v>La ruptura de la tubería principal de agua podría haberse evitado.</v>
       </c>
       <c r="D666" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="667">
@@ -9737,7 +9737,7 @@
         <v>Las cinco amigas son mujeres.</v>
       </c>
       <c r="D667" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="668">
@@ -9751,7 +9751,7 @@
         <v>Kota Ramakrishna Karanth nació después de abril.</v>
       </c>
       <c r="D668" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="669">
@@ -9765,7 +9765,7 @@
         <v>Mi colega también mencionó que podríamos aceptar algunos de los cambios propuestos que eran casi buenos.</v>
       </c>
       <c r="D669" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="670">
@@ -9779,7 +9779,7 @@
         <v>El Parkway Blue Ridge ha sido vendido a partes privadas.</v>
       </c>
       <c r="D670" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="671">
@@ -9793,7 +9793,7 @@
         <v>El hablante conoce el color de los ojos de Sara.</v>
       </c>
       <c r="D671" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="672">
@@ -9807,7 +9807,7 @@
         <v>Partes privadas están interesadas en comprar terrenos de la National Park Trust.</v>
       </c>
       <c r="D672" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="673">
@@ -9821,7 +9821,7 @@
         <v>Manson no jugará un 74º partido.</v>
       </c>
       <c r="D673" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="674">
@@ -9835,7 +9835,7 @@
         <v>ABC transmitió Lost durante al menos 6 temporadas.</v>
       </c>
       <c r="D674" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="675">
@@ -9849,7 +9849,7 @@
         <v>Los alimentos desencadenantes son esenciales para tener en cuenta y evitar tanto en el SII como en el ERGE, ya que son condiciones similares.</v>
       </c>
       <c r="D675" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="676">
@@ -9863,7 +9863,7 @@
         <v>El primer papel de Ira Heiden en una película fue en 1987.</v>
       </c>
       <c r="D676" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="677">
@@ -9877,7 +9877,7 @@
         <v>Los agentes inmobiliarios en Florida no pueden actuar con mala conducta, pero pueden ser ineficaces al representar a sus clientes.</v>
       </c>
       <c r="D677" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="678">
@@ -9891,7 +9891,7 @@
         <v>La junta asesora científica está siendo auditada.</v>
       </c>
       <c r="D678" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="679">
@@ -9919,7 +9919,7 @@
         <v>Rahul Gandhi realmente admira a Narendra Modi.</v>
       </c>
       <c r="D680" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="681">
@@ -9933,7 +9933,7 @@
         <v>La Casa Cooper–Frost–Austin ofrece visitas privadas a principios de mayo.</v>
       </c>
       <c r="D681" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="682">
@@ -9947,7 +9947,7 @@
         <v>Ella llegó a media mañana.</v>
       </c>
       <c r="D682" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="683">
@@ -9961,7 +9961,7 @@
         <v>El Eje de la Perdición es un grupo de pop coreano.</v>
       </c>
       <c r="D683" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="684">
@@ -9975,7 +9975,7 @@
         <v>Los arzobispos deberían ser tratados como cualquier otro miembro de la iglesia.</v>
       </c>
       <c r="D684" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="685">
@@ -9989,7 +9989,7 @@
         <v>Ratatouille podría reproducirse en el coche.</v>
       </c>
       <c r="D685" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="686">
@@ -10003,7 +10003,7 @@
         <v>Tenían miedo de que al volver todos los niños estuvieran enfermos.</v>
       </c>
       <c r="D686" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="687">
@@ -10017,7 +10017,7 @@
         <v>Un poema debe tener rimas.</v>
       </c>
       <c r="D687" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="688">
@@ -10031,7 +10031,7 @@
         <v>Ethan podría haber cultivado las hierbas en el mismo jardín.</v>
       </c>
       <c r="D688" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="689">
@@ -10045,7 +10045,7 @@
         <v>La Associated Press redactó este anuncio.</v>
       </c>
       <c r="D689" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="690">
@@ -10059,7 +10059,7 @@
         <v>Orson Welles fue un productor.</v>
       </c>
       <c r="D690" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="691">
@@ -10073,7 +10073,7 @@
         <v>Joey Graceffa es un ingeniero en informática.</v>
       </c>
       <c r="D691" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="692">
@@ -10087,7 +10087,7 @@
         <v>Radiohead ha lanzado tres álbumes.</v>
       </c>
       <c r="D692" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="693">
@@ -10101,7 +10101,7 @@
         <v>Venom suele estar relacionado con Spiderman.</v>
       </c>
       <c r="D693" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="694">
@@ -10115,7 +10115,7 @@
         <v>Marilyn Burns fue una esgrimista.</v>
       </c>
       <c r="D694" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="695">
@@ -10129,7 +10129,7 @@
         <v>Jim Henson era un cantante.</v>
       </c>
       <c r="D695" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="696">
@@ -10143,7 +10143,7 @@
         <v>Karan Johar es un presidente.</v>
       </c>
       <c r="D696" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="697">
@@ -10157,7 +10157,7 @@
         <v>Orson Welles fue un actor.</v>
       </c>
       <c r="D697" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="698">
@@ -10171,7 +10171,7 @@
         <v>Clint Eastwood interpreta música.</v>
       </c>
       <c r="D698" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="699">
@@ -10185,7 +10185,7 @@
         <v>La reina Victoria fue reina de un país.</v>
       </c>
       <c r="D699" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="700">
@@ -10199,7 +10199,7 @@
         <v>Warm Leatherette es de una mujer.</v>
       </c>
       <c r="D700" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="701">
@@ -10213,7 +10213,7 @@
         <v>X-Men: Días del Futuro Pasado se estrenó después de 2010.</v>
       </c>
       <c r="D701" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="702">
@@ -10227,7 +10227,7 @@
         <v>Jordan Knight es un actor de cine.</v>
       </c>
       <c r="D702" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="703">
@@ -10241,7 +10241,7 @@
         <v>Minnesota está en Francia.</v>
       </c>
       <c r="D703" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="704">
@@ -10255,7 +10255,7 @@
         <v>La enfermedad de Huntington es un trastorno que puede ser heredado.</v>
       </c>
       <c r="D704" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="705">
@@ -10269,7 +10269,7 @@
         <v>Sue Sylvester es interpretada exclusivamente por un actor masculino.</v>
       </c>
       <c r="D705" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="706">
@@ -10283,7 +10283,7 @@
         <v>Joan Crawford comenzó su carrera como actriz.</v>
       </c>
       <c r="D706" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="707">
@@ -10311,7 +10311,7 @@
         <v>Fred Trump tenía trece años en diciembre de 1918.</v>
       </c>
       <c r="D708" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="709">
@@ -10325,7 +10325,7 @@
         <v>Sofia Coppola es un vino espumoso.</v>
       </c>
       <c r="D709" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="710">
@@ -10339,7 +10339,7 @@
         <v>X-Men (película) tiene un elenco que incluye al actor y cantante estadounidense Ian McKellen.</v>
       </c>
       <c r="D710" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="711">
@@ -10353,7 +10353,7 @@
         <v>El período más exitoso del Newcastle United F.C. terminó en mayo de 1910.</v>
       </c>
       <c r="D711" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="712">
@@ -10367,7 +10367,7 @@
         <v>Leonardo da Vinci estudió anatomía.</v>
       </c>
       <c r="D712" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="713">
@@ -10381,7 +10381,7 @@
         <v>Joey Graceffa es de una república compuesta por una federación, basada en una constitución.</v>
       </c>
       <c r="D713" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="714">
@@ -10395,7 +10395,7 @@
         <v>Glee es una comedia de terror.</v>
       </c>
       <c r="D714" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="715">
@@ -10409,7 +10409,7 @@
         <v>El director del episodio piloto de The Blacklist nació durante la administración de Kennedy.</v>
       </c>
       <c r="D715" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="716">
@@ -10423,7 +10423,7 @@
         <v>Roman Reigns es un jardinero.</v>
       </c>
       <c r="D716" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="717">
@@ -10437,7 +10437,7 @@
         <v>Ted Kennedy es un senador de los Estados Unidos.</v>
       </c>
       <c r="D717" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="718">
@@ -10451,7 +10451,7 @@
         <v>Supernatural es una serie.</v>
       </c>
       <c r="D718" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="719">
@@ -10465,7 +10465,7 @@
         <v>El Duodécimo Doctor está en un programa de televisión británico.</v>
       </c>
       <c r="D719" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="720">
@@ -10479,7 +10479,7 @@
         <v>Jack Paar murió en una fecha del siglo XXI.</v>
       </c>
       <c r="D720" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="721">
@@ -10493,7 +10493,7 @@
         <v>Secuencias de disparo de El Planeta de los Simios en y alrededor de la Estatua de la Libertad.</v>
       </c>
       <c r="D721" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="722">
@@ -10507,7 +10507,7 @@
         <v>One More Light fue lanzado a través de CBS.</v>
       </c>
       <c r="D722" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="723">
@@ -10521,7 +10521,7 @@
         <v>Wentworth es un episodio único en la televisión.</v>
       </c>
       <c r="D723" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="724">
@@ -10535,7 +10535,7 @@
         <v>Robert Browning fue un destacado poeta de la era del Imperio Ruso.</v>
       </c>
       <c r="D724" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="725">
@@ -10549,7 +10549,7 @@
         <v>Audrey Horne fue presentada en Twin Peaks: The Return.</v>
       </c>
       <c r="D725" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="726">
@@ -10563,7 +10563,7 @@
         <v>El personaje principal de Avatar: La Leyenda de Aang era Aang.</v>
       </c>
       <c r="D726" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="727">
@@ -10577,7 +10577,7 @@
         <v>Evan Goldberg es un director alemán.</v>
       </c>
       <c r="D727" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="728">
@@ -10591,7 +10591,7 @@
         <v>Cindy McCain es estadounidense.</v>
       </c>
       <c r="D728" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="729">
@@ -10605,7 +10605,7 @@
         <v>Coldplay es una banda británica.</v>
       </c>
       <c r="D729" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="730">
@@ -10619,7 +10619,7 @@
         <v>Tim Allen protagonizó un programa estadounidense.</v>
       </c>
       <c r="D730" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="731">
@@ -10633,7 +10633,7 @@
         <v>Tony Blair fue líder del Partido Conservador.</v>
       </c>
       <c r="D731" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="732">
@@ -10647,7 +10647,7 @@
         <v>Heather Watson es una campeona.</v>
       </c>
       <c r="D732" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="733">
@@ -10661,7 +10661,7 @@
         <v>John McCain es conocido por su trabajo para restaurar las relaciones diplomáticas con Rusia.</v>
       </c>
       <c r="D733" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="734">
@@ -10675,7 +10675,7 @@
         <v>Vladimir Putin fue el presidente de un gobierno.</v>
       </c>
       <c r="D734" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="735">
@@ -10689,7 +10689,7 @@
         <v>El Invitado cuenta con actores de cine estadounidenses.</v>
       </c>
       <c r="D735" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="736">
@@ -10703,7 +10703,7 @@
         <v>Timothy Olyphant era un animal.</v>
       </c>
       <c r="D736" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="737">
@@ -10717,7 +10717,7 @@
         <v>El segundo nombre de Frank Sinatra era Sam.</v>
       </c>
       <c r="D737" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="738">
@@ -10731,7 +10731,7 @@
         <v>Sage Stallone era un padre.</v>
       </c>
       <c r="D738" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="739">
@@ -10745,7 +10745,7 @@
         <v>Mao Zedong era ruso.</v>
       </c>
       <c r="D739" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="740">
@@ -10759,7 +10759,7 @@
         <v>Lee Harvey Oswald asesinó al 35º presidente de los Estados Unidos.</v>
       </c>
       <c r="D740" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="741">
@@ -10773,7 +10773,7 @@
         <v>Gabourey Sidibe es ciudadana de los Estados Unidos.</v>
       </c>
       <c r="D741" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="742">
@@ -10787,7 +10787,7 @@
         <v>Glee fue una película.</v>
       </c>
       <c r="D742" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="743">
@@ -10801,7 +10801,7 @@
         <v>Tony Blair es un actor.</v>
       </c>
       <c r="D743" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="744">
@@ -10815,7 +10815,7 @@
         <v>Anderson Cooper es una persona.</v>
       </c>
       <c r="D744" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="745">
@@ -10829,7 +10829,7 @@
         <v>Heather Watson es madre.</v>
       </c>
       <c r="D745" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="746">
@@ -10843,7 +10843,7 @@
         <v>George Clooney es un caricaturista.</v>
       </c>
       <c r="D746" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="747">
@@ -10857,7 +10857,7 @@
         <v>Avril Lavigne es una música.</v>
       </c>
       <c r="D747" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="748">
@@ -10885,7 +10885,7 @@
         <v>Miranda Kerr fue una modelo canadiense de Victoria's Secret.</v>
       </c>
       <c r="D749" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="750">
@@ -10899,7 +10899,7 @@
         <v>Hulk es una creación.</v>
       </c>
       <c r="D750" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="751">
@@ -10913,7 +10913,7 @@
         <v>Monica Seles jugó al tenis.</v>
       </c>
       <c r="D751" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="752">
@@ -10927,7 +10927,7 @@
         <v>Penny Dreadful comenzó en el siglo XXI.</v>
       </c>
       <c r="D752" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="753">
@@ -10941,7 +10941,7 @@
         <v>Doug Jones está empleado en el negocio del cine.</v>
       </c>
       <c r="D753" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="754">
@@ -10955,7 +10955,7 @@
         <v>Warm Leatherette es de un cantante nacido en Jamaica y fue lanzado en 1980.</v>
       </c>
       <c r="D754" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="755">
@@ -10969,7 +10969,7 @@
         <v>Glee fue una serie de televisión.</v>
       </c>
       <c r="D755" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="756">
@@ -10983,7 +10983,7 @@
         <v>Estella Warren es Géminis.</v>
       </c>
       <c r="D756" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="757">
@@ -10997,7 +10997,7 @@
         <v>Mujeres Desesperadas es una serie de televisión.</v>
       </c>
       <c r="D757" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="758">
@@ -11011,7 +11011,7 @@
         <v>Eminem era un Géminis.</v>
       </c>
       <c r="D758" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="759">
@@ -11025,7 +11025,7 @@
         <v>Thomas DeSimone desapareció en Haití.</v>
       </c>
       <c r="D759" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="760">
@@ -11039,7 +11039,7 @@
         <v>William R. Tolbert Jr. fue asesinado.</v>
       </c>
       <c r="D760" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="761">
@@ -11053,7 +11053,7 @@
         <v>Miranda Cosgrove es una piloto de carreras.</v>
       </c>
       <c r="D761" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="762">
@@ -11067,7 +11067,7 @@
         <v>Wynonna Judd está involucrada en aeróbicos acuáticos.</v>
       </c>
       <c r="D762" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="763">
@@ -11081,7 +11081,7 @@
         <v>Tré Cool es el baterista de Green Day.</v>
       </c>
       <c r="D763" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="764">
@@ -11095,7 +11095,7 @@
         <v>David Schwimmer terminó de actuar en Friends el 8 de octubre de 2004.</v>
       </c>
       <c r="D764" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="765">
@@ -11109,7 +11109,7 @@
         <v>Gennady Golovkin es un esgrimista.</v>
       </c>
       <c r="D765" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="766">
@@ -11123,7 +11123,7 @@
         <v>Dennis Hopper era una persona.</v>
       </c>
       <c r="D766" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="767">
@@ -11137,7 +11137,7 @@
         <v>Sage Stallone nació en China.</v>
       </c>
       <c r="D767" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="768">
@@ -11151,7 +11151,7 @@
         <v>Laurence Olivier estaba en América.</v>
       </c>
       <c r="D768" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="769">
@@ -11179,7 +11179,7 @@
         <v>Novak Djokovic es un atleta.</v>
       </c>
       <c r="D770" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="771">
@@ -11193,7 +11193,7 @@
         <v>Grace Jones actuó en Panorama para matar.</v>
       </c>
       <c r="D771" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="772">
@@ -11207,7 +11207,7 @@
         <v>Dennis Hopper era australiano.</v>
       </c>
       <c r="D772" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="773">
@@ -11221,7 +11221,7 @@
         <v>Amor y Amistad es un comercial.</v>
       </c>
       <c r="D773" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="774">
@@ -11235,7 +11235,7 @@
         <v>España es un país.</v>
       </c>
       <c r="D774" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="775">
@@ -11249,7 +11249,7 @@
         <v>Tony Goldwyn es un productor alemán.</v>
       </c>
       <c r="D775" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="776">
@@ -11263,7 +11263,7 @@
         <v>Roman Reigns es un jugador de béisbol profesional.</v>
       </c>
       <c r="D776" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="777">
@@ -11277,7 +11277,7 @@
         <v>Vladimir Putin fue presidente desde 1997 hasta 2008.</v>
       </c>
       <c r="D777" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="778">
@@ -11291,7 +11291,7 @@
         <v>Seattle es la ciudad más grande del estado de Washington.</v>
       </c>
       <c r="D778" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="779">
@@ -11305,7 +11305,7 @@
         <v>Andy Kaufman era un salvaje.</v>
       </c>
       <c r="D779" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="780">
@@ -11319,7 +11319,7 @@
         <v>Danny Carey no tiene segundo nombre.</v>
       </c>
       <c r="D780" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="781">
@@ -11333,7 +11333,7 @@
         <v>Tiger Woods ganó el Palm Springs Invitational.</v>
       </c>
       <c r="D781" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="782">
@@ -11347,7 +11347,7 @@
         <v>La BRIT School fue fundada en 1922.</v>
       </c>
       <c r="D782" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="783">
@@ -11361,7 +11361,7 @@
         <v>John Wayne Gacy Jr. estuvo involucrado en el crimen.</v>
       </c>
       <c r="D783" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="784">
@@ -11375,7 +11375,7 @@
         <v>El comandante de la Schutzstaffel fue Heinrich Himmler.</v>
       </c>
       <c r="D784" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="785">
@@ -11389,7 +11389,7 @@
         <v>Fergie tiene un perro llamado "Outspoken".</v>
       </c>
       <c r="D785" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="786">
@@ -11403,7 +11403,7 @@
         <v>Joey Graceffa trabajó con un sitio web con sede en San Burno, California.</v>
       </c>
       <c r="D786" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="787">
@@ -11417,7 +11417,7 @@
         <v>The Leftovers está protagonizada por un actor.</v>
       </c>
       <c r="D787" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="788">
@@ -11431,7 +11431,7 @@
         <v>Carmelo Anthony juega para un equipo de fútbol.</v>
       </c>
       <c r="D788" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="789">
@@ -11445,7 +11445,7 @@
         <v>Tom Felton es Géminis.</v>
       </c>
       <c r="D789" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="790">
@@ -11459,7 +11459,7 @@
         <v>La última temporada de Glee fue ordenada el 19 de abril de 2013.</v>
       </c>
       <c r="D790" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="791">
@@ -11473,7 +11473,7 @@
         <v>Glee fue una película.</v>
       </c>
       <c r="D791" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="792">
@@ -11487,7 +11487,7 @@
         <v>Todas las leyes sobre el derecho de las personas a la custodia de los hijos exigen que los padres estén casados.</v>
       </c>
       <c r="D792" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="793">
@@ -11501,7 +11501,7 @@
         <v>Un juicio tuvo testigos en el estrado.</v>
       </c>
       <c r="D793" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="794">
@@ -11515,7 +11515,7 @@
         <v>Dexter se rió de la idea del helado "Tengo un sueño".</v>
       </c>
       <c r="D794" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="795">
@@ -11529,7 +11529,7 @@
         <v>Fish admitió que podría estar equivocado.</v>
       </c>
       <c r="D795" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="796">
@@ -11543,7 +11543,7 @@
         <v>No quiero hacer de abogado del diablo, pero Mussolini fue la principal inspiración para Tudjman, ya que era un joven político.</v>
       </c>
       <c r="D796" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="797">
@@ -11557,7 +11557,7 @@
         <v>Los cristianos al estilo de Falwell creen que Cristo era judío.</v>
       </c>
       <c r="D797" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="798">
@@ -11571,7 +11571,7 @@
         <v>Dicen que su información no vale la pena considerar.</v>
       </c>
       <c r="D798" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="799">
@@ -11585,7 +11585,7 @@
         <v>Richey y el doctor negaron haber cometido cualquier acto ilícito contra Wynette durante el juicio.</v>
       </c>
       <c r="D799" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="800">
@@ -11599,7 +11599,7 @@
         <v>El lector siguió leyendo el libro hasta el final.</v>
       </c>
       <c r="D800" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="801">
@@ -11613,7 +11613,7 @@
         <v>Varios delincuentes convictos podrán interactuar de cerca con el presidente sin vigilancia y grupos de interés especial.</v>
       </c>
       <c r="D801" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="802">
@@ -11627,7 +11627,7 @@
         <v>The New Yorker detuvo la columna Cartas de Europa.</v>
       </c>
       <c r="D802" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="803">
@@ -11641,7 +11641,7 @@
         <v>Mi nombre podría ser Pierre LeCluck.</v>
       </c>
       <c r="D803" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="804">
@@ -11655,7 +11655,7 @@
         <v>Las máquinas de pinball podrían ser utilizadas para el juego.</v>
       </c>
       <c r="D804" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="805">
@@ -11669,7 +11669,7 @@
         <v>Un crimen cometido con una bomba será procesado como cualquier otro crimen.</v>
       </c>
       <c r="D805" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="806">
@@ -12957,7 +12957,7 @@
         <v>Se deben instalar sistemas de admisión avanzados para asistir a más clientes.</v>
       </c>
       <c r="D897" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="898">
@@ -12971,7 +12971,7 @@
         <v>La política fiscal federal puede afectar el ahorro nacional de muchas maneras.</v>
       </c>
       <c r="D898" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="899">
@@ -12985,7 +12985,7 @@
         <v>La tarta de crema de plátano fue la mejor y se puede llevar a casa.</v>
       </c>
       <c r="D899" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="900">
@@ -12999,7 +12999,7 @@
         <v>Se podía oír a Albert caminando en el piso de arriba.</v>
       </c>
       <c r="D900" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="901">
@@ -13013,7 +13013,7 @@
         <v>La luz de la vela hacía que el hombre pareciera aún más robusto.</v>
       </c>
       <c r="D901" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="902">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -11683,7 +11683,7 @@
         <v>New Hampshire y Iowa a menudo cambian los pensamientos de uno.</v>
       </c>
       <c r="D806" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="807">
@@ -11697,7 +11697,7 @@
         <v>Hay un genio vivo en este momento que puede ayudarnos con esto.</v>
       </c>
       <c r="D807" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="808">
@@ -11711,7 +11711,7 @@
         <v>No hay duda de que hay vida en otros planetas.</v>
       </c>
       <c r="D808" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="809">
@@ -11725,7 +11725,7 @@
         <v>Dorthey Healyey conocía a Morris.</v>
       </c>
       <c r="D809" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="810">
@@ -11739,7 +11739,7 @@
         <v>Es incorrecto apelar a esa posición.</v>
       </c>
       <c r="D810" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="811">
@@ -11753,7 +11753,7 @@
         <v>Los cabilderos y los grandes donantes tienen un acceso más fácil a los senadores.</v>
       </c>
       <c r="D811" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="812">
@@ -11767,7 +11767,7 @@
         <v>En 1992, en realidad había más naciones que podrían haber participado,</v>
       </c>
       <c r="D812" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="813">
@@ -11781,7 +11781,7 @@
         <v>Alguien probablemente le pasó a Kenneth Starr una grabación de This Week de esta semana.</v>
       </c>
       <c r="D813" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="814">
@@ -11795,7 +11795,7 @@
         <v>Reebok le dio intencionalmente a la zapatilla un nombre provocativo.</v>
       </c>
       <c r="D814" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="815">
@@ -11809,7 +11809,7 @@
         <v>El niño adoptado acosa a todos en el patio de recreo.</v>
       </c>
       <c r="D815" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="816">
@@ -11823,7 +11823,7 @@
         <v>Se evitarán durante años los apagones catastróficos de redes eléctricas, bancos, computadoras de control de tráfico aéreo, equipos médicos y similares.</v>
       </c>
       <c r="D816" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="817">
@@ -11837,7 +11837,7 @@
         <v>Las hipótesis que Lang cree que están mayormente confirmadas son falsas.</v>
       </c>
       <c r="D817" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="818">
@@ -11851,7 +11851,7 @@
         <v>Hoy, un espía afirmó que, según el conocimiento del hombre muerto, cuando fue entrevistado por un corresponsal, las autoridades estadounidenses podrían haber aprobado el asesinato de Diem.</v>
       </c>
       <c r="D818" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="819">
@@ -11865,7 +11865,7 @@
         <v>Los republicanos evitan criticar al presidente porque es de su partido.</v>
       </c>
       <c r="D819" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="820">
@@ -11879,7 +11879,7 @@
         <v>Podías ver el dolor escrito en su rostro y se veía miserable.</v>
       </c>
       <c r="D820" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="821">
@@ -11893,7 +11893,7 @@
         <v>Ella tenía un secreto de ellos.</v>
       </c>
       <c r="D821" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="822">
@@ -11907,7 +11907,7 @@
         <v>Era difícil saber si estaban en el lugar correcto.</v>
       </c>
       <c r="D822" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="823">
@@ -11921,7 +11921,7 @@
         <v>Los amigos de la desregulación han recibido muchos regalos en aniversarios pasados.</v>
       </c>
       <c r="D823" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="824">
@@ -11935,7 +11935,7 @@
         <v>Amán fue un fracaso costoso.</v>
       </c>
       <c r="D824" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="825">
@@ -11963,7 +11963,7 @@
         <v>A los estudiantes universitarios les importa poco sobre las fábricas de explotación.</v>
       </c>
       <c r="D826" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="827">
@@ -11977,7 +11977,7 @@
         <v>Es posible que el congreso gaste de más.</v>
       </c>
       <c r="D827" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="828">
@@ -11991,7 +11991,7 @@
         <v>Jess Gupta puede ser gay.</v>
       </c>
       <c r="D828" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="829">
@@ -12005,7 +12005,7 @@
         <v>A Henry le gustaba hacer que una chica chillara de felicidad dándole cosas que le gustaban.</v>
       </c>
       <c r="D829" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="830">
@@ -12019,7 +12019,7 @@
         <v>Los mormones practicaban la poligamia.</v>
       </c>
       <c r="D830" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="831">
@@ -12033,7 +12033,7 @@
         <v>Los inversores deberían retirar su dinero de Microsoft debido a la información negativa.</v>
       </c>
       <c r="D831" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="832">
@@ -12047,7 +12047,7 @@
         <v>Pensaban que debería pasar más tiempo en línea.</v>
       </c>
       <c r="D832" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="833">
@@ -12061,7 +12061,7 @@
         <v>Tener un accidente de coche con consecuencias graves podría haber sido una causa para que Joe no fuera elegido en el Congreso.</v>
       </c>
       <c r="D833" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="834">
@@ -12075,7 +12075,7 @@
         <v>La persona no está pensando en sus decisiones.</v>
       </c>
       <c r="D834" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="835">
@@ -12089,7 +12089,7 @@
         <v>El autor ha visto El mercader de Venecia.</v>
       </c>
       <c r="D835" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="836">
@@ -12103,7 +12103,7 @@
         <v>El producto debería llegar a las tiendas durante los meses de verano de junio, julio y agosto.</v>
       </c>
       <c r="D836" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="837">
@@ -12117,7 +12117,7 @@
         <v>La sociedad puede colapsar un día.</v>
       </c>
       <c r="D837" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="838">
@@ -12131,7 +12131,7 @@
         <v>Es probable que el autor contraiga una enfermedad fatal mucho antes de la muerte.</v>
       </c>
       <c r="D838" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="839">
@@ -12145,7 +12145,7 @@
         <v>Tenemos acceso a material protegido por derechos de autor.</v>
       </c>
       <c r="D839" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="840">
@@ -12159,7 +12159,7 @@
         <v>Podrían haber sido todos esclavos.</v>
       </c>
       <c r="D840" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="841">
@@ -12173,7 +12173,7 @@
         <v>Los Estados Unidos y Rusia están en guerra juntos.</v>
       </c>
       <c r="D841" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="842">
@@ -12187,7 +12187,7 @@
         <v>Hay poca protección adicional al unirse a la OTAN.</v>
       </c>
       <c r="D842" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="843">
@@ -12201,7 +12201,7 @@
         <v>Las opciones sobre acciones rara vez son legítimas para el consumidor.</v>
       </c>
       <c r="D843" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="844">
@@ -12215,7 +12215,7 @@
         <v>El programa se expandirá para incluir a la policía.</v>
       </c>
       <c r="D844" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="845">
@@ -12229,7 +12229,7 @@
         <v>Él no juzga demasiado severamente a las personas que tienen ideas religiosas diferentes a las suyas.</v>
       </c>
       <c r="D845" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="846">
@@ -12243,7 +12243,7 @@
         <v>Tienen opciones para salir de la situación.</v>
       </c>
       <c r="D846" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="847">
@@ -12257,7 +12257,7 @@
         <v>Ella ya ha cambiado.</v>
       </c>
       <c r="D847" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="848">
@@ -12271,7 +12271,7 @@
         <v>Los préstamos que eran grandes marcarían la diferencia.</v>
       </c>
       <c r="D848" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="849">
@@ -12285,7 +12285,7 @@
         <v>Apple dio permiso a algunas empresas, como IBM y HP, para producir hardware que ejecutara su sistema operativo.</v>
       </c>
       <c r="D849" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="850">
@@ -12299,7 +12299,7 @@
         <v>Podría ser posible pedir a las personas que se vayan sin tener problemas familiares.</v>
       </c>
       <c r="D850" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="851">
@@ -12313,7 +12313,7 @@
         <v>La inteligencia tiene muchas explicaciones y posibilidades, incluyendo lo extraño.</v>
       </c>
       <c r="D851" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="852">
@@ -12327,7 +12327,7 @@
         <v>Las unidades de comandos iraquíes pueden tener dificultades para escapar de cualquier informe de los medios de comunicación.</v>
       </c>
       <c r="D852" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="853">
@@ -12341,7 +12341,7 @@
         <v>Los empleados de alto rango de una empresa de calzado no están siendo investigados.</v>
       </c>
       <c r="D853" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="854">
@@ -12355,7 +12355,7 @@
         <v>Tripp en realidad montó un dragón, pero los medios ignoraron eso y se centraron en su testimonio en el tribunal en su lugar.</v>
       </c>
       <c r="D854" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="855">
@@ -12369,7 +12369,7 @@
         <v>Nadie está seguro de cuándo Bergman decidió que Wigand no importaba.</v>
       </c>
       <c r="D855" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="856">
@@ -12383,7 +12383,7 @@
         <v>El libro termina con el argumento</v>
       </c>
       <c r="D856" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="857">
@@ -12397,7 +12397,7 @@
         <v>Es imperativo que los proveedores de servicios humanos sin fines de lucro utilicen prácticas y mentalidades extranjeras para poder trabajar.</v>
       </c>
       <c r="D857" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="858">
@@ -12411,7 +12411,7 @@
         <v>Las millas de viajero frecuente retenidas pueden canjearse por valor en efectivo.</v>
       </c>
       <c r="D858" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="859">
@@ -12425,7 +12425,7 @@
         <v>Casi definitivamente terminará siendo cambiado.</v>
       </c>
       <c r="D859" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="860">
@@ -12439,7 +12439,7 @@
         <v>Ciertos tipos de innovaciones en servicios propuestas deberían ser consideradas por el USPS.</v>
       </c>
       <c r="D860" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="861">
@@ -12453,7 +12453,7 @@
         <v>Microsoft ha participado en comportamientos cuestionables y está siendo investigado.</v>
       </c>
       <c r="D861" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="862">
@@ -12467,7 +12467,7 @@
         <v>Bill Bradley y Al Gore son los únicos otros afectados por el fraude de votación en línea además de los demócratas de Arizona.</v>
       </c>
       <c r="D862" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="863">
@@ -12481,7 +12481,7 @@
         <v>Las opciones sobre acciones son una buena idea.</v>
       </c>
       <c r="D863" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="864">
@@ -12509,7 +12509,7 @@
         <v>A parece una taberna rural con un patio de adoquines.</v>
       </c>
       <c r="D865" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="866">
@@ -12523,7 +12523,7 @@
         <v>La Academia Nacional de Ciencias informó sobre las prioridades de investigación para el PM.</v>
       </c>
       <c r="D866" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="867">
@@ -12537,7 +12537,7 @@
         <v>No es inusual que los guías turísticos se cuelen en la residencia oficial del gobierno portugués.</v>
       </c>
       <c r="D867" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="868">
@@ -12551,7 +12551,7 @@
         <v>Grecia podría absorber las islas del norte y este de Italia y aprovechó esta oportunidad.</v>
       </c>
       <c r="D868" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="869">
@@ -12565,7 +12565,7 @@
         <v>Las severas limitaciones de tiempo en los esfuerzos de conversión del año 2000 no deberían tener absolutamente ningún efecto en la confidencialidad de los datos sensibles.</v>
       </c>
       <c r="D869" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="870">
@@ -12579,7 +12579,7 @@
         <v>Solo habló del presidente en privado.</v>
       </c>
       <c r="D870" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="871">
@@ -12593,7 +12593,7 @@
         <v>Eres el verdadero Franklin, sin importar cómo esté vestido.</v>
       </c>
       <c r="D871" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="872">
@@ -12607,7 +12607,7 @@
         <v>Los árboles se veían maravillosos.</v>
       </c>
       <c r="D872" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="873">
@@ -12621,7 +12621,7 @@
         <v>Los republicanos solían estar interesados en mantener a Gingrich cerca.</v>
       </c>
       <c r="D873" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="874">
@@ -12635,7 +12635,7 @@
         <v>Alguien debe saber dónde está.</v>
       </c>
       <c r="D874" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="875">
@@ -12649,7 +12649,7 @@
         <v>Creo que enviaron una carta a mi esposo para averiguar si tu esposo trabaja para TI.</v>
       </c>
       <c r="D875" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="876">
@@ -12663,7 +12663,7 @@
         <v>¿Cuántas porciones hace eso?</v>
       </c>
       <c r="D876" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="877">
@@ -12677,7 +12677,7 @@
         <v>No tienen conocimiento del sentido de la moda.</v>
       </c>
       <c r="D877" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="878">
@@ -12691,7 +12691,7 @@
         <v>Drew conocía a Don Quijote.</v>
       </c>
       <c r="D878" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="879">
@@ -12705,7 +12705,7 @@
         <v>Los partidarios de la NASA siempre han sostenido que se trataba de un problema de financiación.</v>
       </c>
       <c r="D879" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="880">
@@ -12719,7 +12719,7 @@
         <v>Drew aceptó una oferta por el caballo.</v>
       </c>
       <c r="D880" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="881">
@@ -12733,7 +12733,7 @@
         <v>Deberías.</v>
       </c>
       <c r="D881" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="882">
@@ -12747,7 +12747,7 @@
         <v>podrían ser muy bien</v>
       </c>
       <c r="D882" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="883">
@@ -12761,7 +12761,7 @@
         <v>Vale la pena tener extra porque puede que no se vote.</v>
       </c>
       <c r="D883" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="884">
@@ -12775,7 +12775,7 @@
         <v>Se estima que el juicio costará a Scheck entre $100,000 y $300,000, una cantidad que podría pagar fácilmente.</v>
       </c>
       <c r="D884" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="885">
@@ -12789,7 +12789,7 @@
         <v>San'doro levantó a Jon para que pudiera ponerse de pie.</v>
       </c>
       <c r="D885" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="886">
@@ -12803,7 +12803,7 @@
         <v>Uno se pregunta si su historia de ser un payaso de circo afectó su fotografía.</v>
       </c>
       <c r="D886" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="887">
@@ -12817,7 +12817,7 @@
         <v>La decisión determinará si estas estimaciones pueden cambiar o no.</v>
       </c>
       <c r="D887" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="888">
@@ -12831,7 +12831,7 @@
         <v>La élite gobernante dicta la economía nacional.</v>
       </c>
       <c r="D888" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="889">
@@ -12845,7 +12845,7 @@
         <v>Era muy sospechoso que hiciera un nuevo testamento el día que murió.</v>
       </c>
       <c r="D889" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="890">
@@ -12859,7 +12859,7 @@
         <v>El contratista debe estar involucrado.</v>
       </c>
       <c r="D890" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="891">
@@ -12873,7 +12873,7 @@
         <v>Una persona puede no tener preferencia entre dos ofertas.</v>
       </c>
       <c r="D891" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="892">
@@ -12887,7 +12887,7 @@
         <v>La nueva norma de emisiones se publicó en mayo de 1996.</v>
       </c>
       <c r="D892" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="893">
@@ -12901,7 +12901,7 @@
         <v>Puede que no termine como una democracia.</v>
       </c>
       <c r="D893" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="894">
@@ -12915,7 +12915,7 @@
         <v>El valor es grande y debe haber algún tipo de error.</v>
       </c>
       <c r="D894" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="895">
@@ -12929,7 +12929,7 @@
         <v>Debiste haber muerto en la guerra.</v>
       </c>
       <c r="D895" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="896">
@@ -12943,7 +12943,7 @@
         <v>El autor está feliz de que la idea no se haya concretado.</v>
       </c>
       <c r="D896" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="897">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -11627,7 +11627,7 @@
         <v>The New Yorker detuvo la columna Cartas de Europa.</v>
       </c>
       <c r="D802" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="803">
@@ -11655,7 +11655,7 @@
         <v>Las máquinas de pinball podrían ser utilizadas para el juego.</v>
       </c>
       <c r="D804" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="805">
@@ -11669,7 +11669,7 @@
         <v>Un crimen cometido con una bomba será procesado como cualquier otro crimen.</v>
       </c>
       <c r="D805" t="str">
-        <v>Neutral</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="806">
@@ -11683,7 +11683,7 @@
         <v>New Hampshire y Iowa a menudo cambian los pensamientos de uno.</v>
       </c>
       <c r="D806" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="807">
@@ -11697,7 +11697,7 @@
         <v>Hay un genio vivo en este momento que puede ayudarnos con esto.</v>
       </c>
       <c r="D807" t="str">
-        <v>Entailment</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="808">
@@ -11739,7 +11739,7 @@
         <v>Es incorrecto apelar a esa posición.</v>
       </c>
       <c r="D810" t="str">
-        <v>Entailment</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="811">
@@ -11753,7 +11753,7 @@
         <v>Los cabilderos y los grandes donantes tienen un acceso más fácil a los senadores.</v>
       </c>
       <c r="D811" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="812">
@@ -11781,7 +11781,7 @@
         <v>Alguien probablemente le pasó a Kenneth Starr una grabación de This Week de esta semana.</v>
       </c>
       <c r="D813" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="814">
@@ -11837,7 +11837,7 @@
         <v>Las hipótesis que Lang cree que están mayormente confirmadas son falsas.</v>
       </c>
       <c r="D817" t="str">
-        <v>Neutral</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="818">
@@ -11851,7 +11851,7 @@
         <v>Hoy, un espía afirmó que, según el conocimiento del hombre muerto, cuando fue entrevistado por un corresponsal, las autoridades estadounidenses podrían haber aprobado el asesinato de Diem.</v>
       </c>
       <c r="D818" t="str">
-        <v>Entailment</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="819">
@@ -11879,7 +11879,7 @@
         <v>Podías ver el dolor escrito en su rostro y se veía miserable.</v>
       </c>
       <c r="D820" t="str">
-        <v>Entailment</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="821">
@@ -11907,7 +11907,7 @@
         <v>Era difícil saber si estaban en el lugar correcto.</v>
       </c>
       <c r="D822" t="str">
-        <v>Entailment</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="823">
@@ -11935,7 +11935,7 @@
         <v>Amán fue un fracaso costoso.</v>
       </c>
       <c r="D824" t="str">
-        <v>Entailment</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="825">
@@ -11949,7 +11949,7 @@
         <v>Los empleadores deberían vender huevos a los accionistas.</v>
       </c>
       <c r="D825" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="826">
@@ -11963,7 +11963,7 @@
         <v>A los estudiantes universitarios les importa poco sobre las fábricas de explotación.</v>
       </c>
       <c r="D826" t="str">
-        <v>Neutral</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="827">
@@ -11977,7 +11977,7 @@
         <v>Es posible que el congreso gaste de más.</v>
       </c>
       <c r="D827" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="828">
@@ -12047,7 +12047,7 @@
         <v>Pensaban que debería pasar más tiempo en línea.</v>
       </c>
       <c r="D832" t="str">
-        <v>Neutral</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="833">
@@ -12061,7 +12061,7 @@
         <v>Tener un accidente de coche con consecuencias graves podría haber sido una causa para que Joe no fuera elegido en el Congreso.</v>
       </c>
       <c r="D833" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="834">
@@ -12145,7 +12145,7 @@
         <v>Tenemos acceso a material protegido por derechos de autor.</v>
       </c>
       <c r="D839" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="840">
@@ -12159,7 +12159,7 @@
         <v>Podrían haber sido todos esclavos.</v>
       </c>
       <c r="D840" t="str">
-        <v>Contradiction</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="841">
@@ -12173,7 +12173,7 @@
         <v>Los Estados Unidos y Rusia están en guerra juntos.</v>
       </c>
       <c r="D841" t="str">
-        <v>Neutral</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="842">
@@ -12229,7 +12229,7 @@
         <v>Él no juzga demasiado severamente a las personas que tienen ideas religiosas diferentes a las suyas.</v>
       </c>
       <c r="D845" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="846">
@@ -12271,7 +12271,7 @@
         <v>Los préstamos que eran grandes marcarían la diferencia.</v>
       </c>
       <c r="D848" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="849">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -12383,7 +12383,7 @@
         <v>El libro termina con el argumento</v>
       </c>
       <c r="D856" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="857">
@@ -12411,7 +12411,7 @@
         <v>Las millas de viajero frecuente retenidas pueden canjearse por valor en efectivo.</v>
       </c>
       <c r="D858" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="859">
@@ -12425,7 +12425,7 @@
         <v>Casi definitivamente terminará siendo cambiado.</v>
       </c>
       <c r="D859" t="str">
-        <v>Entailment</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="860">
@@ -12453,7 +12453,7 @@
         <v>Microsoft ha participado en comportamientos cuestionables y está siendo investigado.</v>
       </c>
       <c r="D861" t="str">
-        <v>Neutral</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="862">
@@ -12467,7 +12467,7 @@
         <v>Bill Bradley y Al Gore son los únicos otros afectados por el fraude de votación en línea además de los demócratas de Arizona.</v>
       </c>
       <c r="D862" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="863">
@@ -12537,7 +12537,7 @@
         <v>No es inusual que los guías turísticos se cuelen en la residencia oficial del gobierno portugués.</v>
       </c>
       <c r="D867" t="str">
-        <v>Entailment</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="868">
@@ -12551,7 +12551,7 @@
         <v>Grecia podría absorber las islas del norte y este de Italia y aprovechó esta oportunidad.</v>
       </c>
       <c r="D868" t="str">
-        <v>Neutral</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="869">
@@ -12579,7 +12579,7 @@
         <v>Solo habló del presidente en privado.</v>
       </c>
       <c r="D870" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="871">
@@ -12607,7 +12607,7 @@
         <v>Los árboles se veían maravillosos.</v>
       </c>
       <c r="D872" t="str">
-        <v>Entailment</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="873">
@@ -12663,7 +12663,7 @@
         <v>¿Cuántas porciones hace eso?</v>
       </c>
       <c r="D876" t="str">
-        <v>Entailment</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="877">
@@ -12705,7 +12705,7 @@
         <v>Los partidarios de la NASA siempre han sostenido que se trataba de un problema de financiación.</v>
       </c>
       <c r="D879" t="str">
-        <v>Neutral</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="880">
@@ -12733,7 +12733,7 @@
         <v>Deberías.</v>
       </c>
       <c r="D881" t="str">
-        <v>Neutral</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="882">
@@ -12761,7 +12761,7 @@
         <v>Vale la pena tener extra porque puede que no se vote.</v>
       </c>
       <c r="D883" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="884">
@@ -12817,7 +12817,7 @@
         <v>La decisión determinará si estas estimaciones pueden cambiar o no.</v>
       </c>
       <c r="D887" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="888">
@@ -12873,7 +12873,7 @@
         <v>Una persona puede no tener preferencia entre dos ofertas.</v>
       </c>
       <c r="D891" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="892">
@@ -12901,7 +12901,7 @@
         <v>Puede que no termine como una democracia.</v>
       </c>
       <c r="D893" t="str">
-        <v>Contradiction</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="894">
@@ -12915,7 +12915,7 @@
         <v>El valor es grande y debe haber algún tipo de error.</v>
       </c>
       <c r="D894" t="str">
-        <v>Entailment</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="895">
@@ -12929,7 +12929,7 @@
         <v>Debiste haber muerto en la guerra.</v>
       </c>
       <c r="D895" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="896">
@@ -12971,7 +12971,7 @@
         <v>La política fiscal federal puede afectar el ahorro nacional de muchas maneras.</v>
       </c>
       <c r="D898" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="899">
@@ -12985,7 +12985,7 @@
         <v>La tarta de crema de plátano fue la mejor y se puede llevar a casa.</v>
       </c>
       <c r="D899" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="900">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -13027,7 +13027,7 @@
         <v>El concordato está dentro de las regulaciones del TLCAN.</v>
       </c>
       <c r="D902" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="903">
@@ -13041,7 +13041,7 @@
         <v>La mejor manera de llevar a cabo una campaña de marketing por correo electrónico es improvisar. Haz una lista de clientes. Molestar a la gente es una excelente manera de conseguir seguidores. El marketing por correo electrónico se originó en la década de mil novecientos ochenta.</v>
       </c>
       <c r="D903" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="904">
@@ -13055,7 +13055,7 @@
         <v>No hay miembros de Nueva York.</v>
       </c>
       <c r="D904" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="905">
@@ -13069,7 +13069,7 @@
         <v>El cachorro iba a cumplir un año más.</v>
       </c>
       <c r="D905" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="906">
@@ -13083,7 +13083,7 @@
         <v>El usuario de YouTube Streetcap1 publicó una serie de imágenes tomadas por el rover lunar chino Chang'e 4.</v>
       </c>
       <c r="D906" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="907">
@@ -13097,7 +13097,7 @@
         <v>El estado de estar distraído puede ser percibido a través de los sentidos visuales.</v>
       </c>
       <c r="D907" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="908">
@@ -13111,7 +13111,7 @@
         <v>La escuela Rye St Antony no permite a los niños de 9 años.</v>
       </c>
       <c r="D908" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="909">
@@ -13125,7 +13125,7 @@
         <v>El gobernador ha propuesto el doble de construcción de nación.</v>
       </c>
       <c r="D909" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="910">
@@ -13153,7 +13153,7 @@
         <v>El color del otoño no depende de la lluvia.</v>
       </c>
       <c r="D911" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="912">
@@ -13167,7 +13167,7 @@
         <v>Jusuf Kalla no es el presidente de Filipinas.</v>
       </c>
       <c r="D912" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="913">
@@ -13181,7 +13181,7 @@
         <v>Las zonas compartidas tienen en cuenta el diseño urbano.</v>
       </c>
       <c r="D913" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="914">
@@ -13209,7 +13209,7 @@
         <v>Hell Blade se clasificó más alto que Time's End.</v>
       </c>
       <c r="D915" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="916">
@@ -13223,7 +13223,7 @@
         <v>El doctor estaba saliendo a caminar cuando ocurrió todo esto.</v>
       </c>
       <c r="D916" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="917">
@@ -13237,7 +13237,7 @@
         <v>Chuck Wright fue uno de los muchos cantantes de fondo de Quiet Riot.</v>
       </c>
       <c r="D917" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="918">
@@ -13251,7 +13251,7 @@
         <v>El salón central no puede albergar a más de 10,014 personas para los partidos de baloncesto.</v>
       </c>
       <c r="D918" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="919">
@@ -13265,7 +13265,7 @@
         <v>Se examinaría a algunos abogados constitucionales.</v>
       </c>
       <c r="D919" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="920">
@@ -13279,7 +13279,7 @@
         <v>el cartón débil es mejor que el resistente</v>
       </c>
       <c r="D920" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="921">
@@ -13307,7 +13307,7 @@
         <v>Eric pensó que Neil se veía mejor con ropa de trabajo que con ropa de vestir.</v>
       </c>
       <c r="D922" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="923">
@@ -13321,7 +13321,7 @@
         <v>Se están perdiendo empleos en América bajo el presidente.</v>
       </c>
       <c r="D923" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="924">
@@ -13335,7 +13335,7 @@
         <v>El crecimiento económico es el enfoque más importante para el Comandante en Jefe de la Tierra de los Libres y el Hogar de los Valientes.</v>
       </c>
       <c r="D924" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="925">
@@ -13349,7 +13349,7 @@
         <v>"Donde se proporciona una declaración jurada" es un lenguaje muy específico.</v>
       </c>
       <c r="D925" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="926">
@@ -13363,7 +13363,7 @@
         <v>El Sr. Weasel es un personaje ficticio.</v>
       </c>
       <c r="D926" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="927">
@@ -13377,7 +13377,7 @@
         <v>Los hombres fueron disparados desde el interior de un edificio por el que estaban pasando.</v>
       </c>
       <c r="D927" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="928">
@@ -13391,7 +13391,7 @@
         <v>El hombre no murió en el lugar.</v>
       </c>
       <c r="D928" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="929">
@@ -13419,7 +13419,7 @@
         <v>El presidente cree en tener relaciones sólidas con Europa.</v>
       </c>
       <c r="D930" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="931">
@@ -13433,7 +13433,7 @@
         <v>Todo por amor fue escrito por menos de cuatro personas.</v>
       </c>
       <c r="D931" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="932">
@@ -13461,7 +13461,7 @@
         <v>La gramática de puente no es más pequeña que la gramática de isla.</v>
       </c>
       <c r="D933" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="934">
@@ -13475,7 +13475,7 @@
         <v>Este programa ya no se llama "Jack Horkheimer: Star Hustler".</v>
       </c>
       <c r="D934" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="935">
@@ -13489,7 +13489,7 @@
         <v>El chicle es mejor para hacer burbujas.</v>
       </c>
       <c r="D935" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="936">
@@ -13503,7 +13503,7 @@
         <v>Este orador ha asistido a muchos Aprobaciones Reales.</v>
       </c>
       <c r="D936" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="937">
@@ -13517,7 +13517,7 @@
         <v>Durante un año, el gobierno canadiense ha estado involucrado en negociaciones secretas.</v>
       </c>
       <c r="D937" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="938">
@@ -13531,7 +13531,7 @@
         <v>Gore es llamado gobernador.</v>
       </c>
       <c r="D938" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="939">
@@ -13545,7 +13545,7 @@
         <v>Streetcap1 estaba en la luna cuando publicó fotos del rover lunar chino Chang'e 3.</v>
       </c>
       <c r="D939" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="940">
@@ -13559,7 +13559,7 @@
         <v>Change’e 3 no publicó clips en Youtube.</v>
       </c>
       <c r="D940" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="941">
@@ -13573,7 +13573,7 @@
         <v>Las tendencias están regresando.</v>
       </c>
       <c r="D941" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="942">
@@ -13601,7 +13601,7 @@
         <v>Mientras Zdeno Chara es el jugador más alto de la NHL, Mike Cvik no es uno de los jugadores más altos.</v>
       </c>
       <c r="D943" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="944">
@@ -13615,7 +13615,7 @@
         <v>Holding Back the River alcanzó una posición más alta en las listas que el álbum debut de la banda.</v>
       </c>
       <c r="D944" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="945">
@@ -13629,7 +13629,7 @@
         <v>Gordon golpeó más de una vez en otro juego esta temporada.</v>
       </c>
       <c r="D945" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="946">
@@ -13643,7 +13643,7 @@
         <v>Beat TV se transmitió durante más de dos horas a la vez.</v>
       </c>
       <c r="D946" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="947">
@@ -13657,7 +13657,7 @@
         <v>Hay más de 10 escuelas en la Conferencia Big 12.</v>
       </c>
       <c r="D947" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="948">
@@ -13671,7 +13671,7 @@
         <v>El Museo Kelvingrove de Glasgow estaba en India.</v>
       </c>
       <c r="D948" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="949">
@@ -13685,7 +13685,7 @@
         <v>Annet Artani no escribió todas sus canciones.</v>
       </c>
       <c r="D949" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="950">
@@ -13699,7 +13699,7 @@
         <v>Amy y Anna se encontraron de nuevo después de haberse conocido por casualidad en el café.</v>
       </c>
       <c r="D950" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="951">
@@ -13713,7 +13713,7 @@
         <v>El campo Bob Adams está a veinticinco millas al este del Aeropuerto Regional de Yampa Valley.</v>
       </c>
       <c r="D951" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="952">

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -14287,7 +14287,7 @@
         <v>Billy Joel está en la industria de las artes escénicas.</v>
       </c>
       <c r="D992" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="993">
@@ -14301,7 +14301,7 @@
         <v>Sinsajo fue publicado en tapa blanda.</v>
       </c>
       <c r="D993" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="994">
@@ -14315,7 +14315,7 @@
         <v>Brittany Murphy actuó.</v>
       </c>
       <c r="D994" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="995">
@@ -14329,7 +14329,7 @@
         <v>Foo Fighters hacen música.</v>
       </c>
       <c r="D995" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="996">
@@ -14343,7 +14343,7 @@
         <v>El Boeing 777 es el avión de pasajeros con mayor alcance del mundo.</v>
       </c>
       <c r="D996" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="997">
@@ -14357,7 +14357,7 @@
         <v>Muhammad es significativo para la religión.</v>
       </c>
       <c r="D997" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="998">
@@ -14371,7 +14371,7 @@
         <v>Transformers: La venganza de los caídos es una película.</v>
       </c>
       <c r="D998" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="999">
@@ -14385,7 +14385,7 @@
         <v>El nombre artístico de Big Show es Paul Donald Wight II.</v>
       </c>
       <c r="D999" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="1000">
@@ -14399,7 +14399,7 @@
         <v>Muhammad es significativo para la religión.</v>
       </c>
       <c r="D1000" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="1001">
@@ -14413,7 +14413,7 @@
         <v>Joaquín Phoenix ha dirigido películas.</v>
       </c>
       <c r="D1001" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
   </sheetData>

--- a/Annotations/annotations_ES.xlsx
+++ b/Annotations/annotations_ES.xlsx
@@ -13727,7 +13727,7 @@
         <v>No todos merecen Medicare.</v>
       </c>
       <c r="D952" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="953">
@@ -13741,7 +13741,7 @@
         <v>Neil Gordon no es un hombre de moda.</v>
       </c>
       <c r="D953" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="954">
@@ -13783,7 +13783,7 @@
         <v>Nancy Hart Douglas no fue una exploradora bajo el mando del General Stonewall Jackson.</v>
       </c>
       <c r="D956" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="957">
@@ -13797,7 +13797,7 @@
         <v>Tailandia y Camboya no pueden llegar a un acuerdo sobre la propiedad de un templo.</v>
       </c>
       <c r="D957" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="958">
@@ -13811,7 +13811,7 @@
         <v>Más de tres semanas después del asesinato de Pamela, Lois Riess estaba bajo custodia policial.</v>
       </c>
       <c r="D958" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="959">
@@ -13839,7 +13839,7 @@
         <v>Jensen Ackles no es conocido por sus papeles en televisión como Jason Teague en Smallville.</v>
       </c>
       <c r="D960" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="961">
@@ -13867,7 +13867,7 @@
         <v>Los hermanos Coen dirigieron una película de suspenso.</v>
       </c>
       <c r="D962" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="963">
@@ -13881,7 +13881,7 @@
         <v>Muhammad fue un profeta.</v>
       </c>
       <c r="D963" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="964">
@@ -13895,7 +13895,7 @@
         <v>Venus Williams juega individuales en tenis.</v>
       </c>
       <c r="D964" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="965">
@@ -13909,7 +13909,7 @@
         <v>Brittany Murphy protagonizó una película.</v>
       </c>
       <c r="D965" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="966">
@@ -13923,7 +13923,7 @@
         <v>Bermudas fue colonizada en 1609.</v>
       </c>
       <c r="D966" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="967">
@@ -13937,7 +13937,7 @@
         <v>Harry Styles y sus compañeros de banda lanzaron el álbum folk Midnight Memories.</v>
       </c>
       <c r="D967" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="968">
@@ -13951,7 +13951,7 @@
         <v>Animales fantásticos y dónde encontrarlos es un libro de naturaleza.</v>
       </c>
       <c r="D968" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="969">
@@ -13965,7 +13965,7 @@
         <v>Mirka Federer es una tenista que jugó profesionalmente y ya no juega.</v>
       </c>
       <c r="D969" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="970">
@@ -13979,7 +13979,7 @@
         <v>El nombre de nacimiento de Big Show es Paul Donald Wight II, aunque utiliza Big Show para la lucha libre profesional.</v>
       </c>
       <c r="D970" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="971">
@@ -13993,7 +13993,7 @@
         <v>Leslie Uggams apareció en una película dirigida por Tim Miller.</v>
       </c>
       <c r="D971" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="972">
@@ -14007,7 +14007,7 @@
         <v>Venus Williams juega individuales en tenis.</v>
       </c>
       <c r="D972" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="973">
@@ -14021,7 +14021,7 @@
         <v>Drew Barrymore protagonizó una película.</v>
       </c>
       <c r="D973" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="974">
@@ -14035,7 +14035,7 @@
         <v>Toy Story no se basó en material publicado previamente, lo que le permitió ser nominado a Mejor Guion Original.</v>
       </c>
       <c r="D974" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="975">
@@ -14049,7 +14049,7 @@
         <v>Malala Yousafzai es una defensora del derecho de las mujeres a la educación.</v>
       </c>
       <c r="D975" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="976">
@@ -14063,7 +14063,7 @@
         <v>Pi es un número.</v>
       </c>
       <c r="D976" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="977">
@@ -14077,7 +14077,7 @@
         <v>Un alto porcentaje de la población en Azerbaiyán es alfabetizada.</v>
       </c>
       <c r="D977" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="978">
@@ -14091,7 +14091,7 @@
         <v>Italia tiene un título oficial más largo.</v>
       </c>
       <c r="D978" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="979">
@@ -14105,7 +14105,7 @@
         <v>Matt Groening ganó premios Emmy en horario estelar por Los Simpson.</v>
       </c>
       <c r="D979" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="980">
@@ -14119,7 +14119,7 @@
         <v>Muhammad es significativo para la religión.</v>
       </c>
       <c r="D980" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="981">
@@ -14133,7 +14133,7 @@
         <v>John McEnroe fue un jugador de tenis.</v>
       </c>
       <c r="D981" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="982">
@@ -14147,7 +14147,7 @@
         <v>Black Mirror es un caballo de carreras.</v>
       </c>
       <c r="D982" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="983">
@@ -14161,7 +14161,7 @@
         <v>Catching Fire es un género.</v>
       </c>
       <c r="D983" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="984">
@@ -14175,7 +14175,7 @@
         <v>John McCain fue acusado de corrupción en 1989 como parte de los Keating Five.</v>
       </c>
       <c r="D984" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="985">
@@ -14189,7 +14189,7 @@
         <v>Valerian y la ciudad de mil planetas cuenta con un actor.</v>
       </c>
       <c r="D985" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="986">
@@ -14203,7 +14203,7 @@
         <v>Venus Williams juega individuales en tenis.</v>
       </c>
       <c r="D986" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="987">
@@ -14217,7 +14217,7 @@
         <v>Margaret de Valois tenía hermanas.</v>
       </c>
       <c r="D987" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="988">
@@ -14245,7 +14245,7 @@
         <v>La Asociación Internacional de Compositores de Nashville ofrece educación en la industria de la música.</v>
       </c>
       <c r="D989" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="990">
@@ -14259,7 +14259,7 @@
         <v>Batman Begins precedió a la independencia de América del Norte.</v>
       </c>
       <c r="D990" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="991">
@@ -14273,7 +14273,7 @@
         <v>Toy Story no se basó en material previamente publicado, lo que le permitió ser nominado a Mejor Guion Original.</v>
       </c>
       <c r="D991" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="992">
@@ -14301,7 +14301,7 @@
         <v>Sinsajo fue publicado en tapa blanda.</v>
       </c>
       <c r="D993" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="994">
@@ -14399,7 +14399,7 @@
         <v>Muhammad es significativo para la religión.</v>
       </c>
       <c r="D1000" t="str">
-        <v>Neutral</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="1001">
@@ -14413,7 +14413,7 @@
         <v>Joaquín Phoenix ha dirigido películas.</v>
       </c>
       <c r="D1001" t="str">
-        <v>Contradiction</v>
+        <v>Neutral</v>
       </c>
     </row>
   </sheetData>
